--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="206">
   <si>
     <t>Suburb</t>
   </si>
@@ -133,9 +133,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>0005231956</t>
-  </si>
-  <si>
     <t>240</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
     <t>4532071567169271</t>
   </si>
   <si>
+    <t>3100000944</t>
+  </si>
+  <si>
     <t>2026</t>
   </si>
   <si>
@@ -256,7 +256,7 @@
     <t>Password2</t>
   </si>
   <si>
-    <t>fake625117617340649@automationjdg.co.za</t>
+    <t>fake723876021265152@automationjdg.co.za</t>
   </si>
   <si>
     <t>ID</t>
@@ -271,7 +271,7 @@
     <t>Create new customer in IC and Validate VAT Number</t>
   </si>
   <si>
-    <t>fake822684985771421@automationjdg.co.za</t>
+    <t>fake162048224013151@automationjdg.co.za</t>
   </si>
   <si>
     <t>Create new customer in IC and Validate ID Number</t>
@@ -280,7 +280,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>fake005374492748201@automationjdg.co.za</t>
+    <t>fake713203755393627@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222225</t>
@@ -292,7 +292,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>fake655242542537253@automationjdg.co.za</t>
+    <t>fake107283496216580@automationjdg.co.za</t>
   </si>
   <si>
     <t>Passport</t>
@@ -307,7 +307,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>fake308885658241226@automationjdg.co.za</t>
+    <t>fake332381653561962@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -319,7 +319,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>fake037936506582222@automationjdg.co.za</t>
+    <t>fake189402528639166@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222228</t>
@@ -373,36 +373,39 @@
     <t>ProductSearch</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>iCcartVerification</t>
+  </si>
+  <si>
+    <t>deliveryPopulation</t>
+  </si>
+  <si>
+    <t>CheckoutpaymentOption</t>
+  </si>
+  <si>
+    <t>PayUPagePayment</t>
+  </si>
+  <si>
+    <t>Create Sales order with guest user- using product search bar</t>
+  </si>
+  <si>
+    <t>Login_magento</t>
+  </si>
+  <si>
+    <t>OrderStatusSearch</t>
+  </si>
+  <si>
+    <t>GenerateOrderSAPnumber</t>
+  </si>
+  <si>
+    <t>accountCreation</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>iCcartVerification</t>
-  </si>
-  <si>
-    <t>deliveryPopulation</t>
-  </si>
-  <si>
-    <t>CheckoutpaymentOption</t>
-  </si>
-  <si>
-    <t>PayUPagePayment</t>
-  </si>
-  <si>
-    <t>Create Sales order with guest user- using product search bar</t>
-  </si>
-  <si>
-    <t>Login_magento</t>
-  </si>
-  <si>
-    <t>OrderStatusSearch</t>
-  </si>
-  <si>
-    <t>GenerateOrderSAPnumber</t>
-  </si>
-  <si>
-    <t>accountCreation</t>
-  </si>
-  <si>
     <t>Verify_Acount_Information</t>
   </si>
   <si>
@@ -427,9 +430,6 @@
     <t>Magento admin register new user</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>ic_CashDepositPayment</t>
   </si>
   <si>
@@ -448,46 +448,115 @@
     <t>Password</t>
   </si>
   <si>
-    <t>225564</t>
-  </si>
-  <si>
-    <t>Access#1</t>
-  </si>
-  <si>
-    <t>categorySearch</t>
+    <t>225505</t>
+  </si>
+  <si>
+    <t>Password4</t>
   </si>
   <si>
     <t>specificProduct</t>
   </si>
   <si>
+    <t>cartButtonWaitTimeInSeconds</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>typeSearch</t>
   </si>
   <si>
-    <t>productsToSearch</t>
-  </si>
-  <si>
-    <t>Samsung Toner D105L</t>
-  </si>
-  <si>
-    <t>searchbar</t>
-  </si>
-  <si>
-    <t>sumsung</t>
-  </si>
-  <si>
-    <t>OFA SAMSUNG REMOTE URC1910</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>Photography </t>
-  </si>
-  <si>
-    <t>CANON DIGITAL CAM IXUS 185 BLACK</t>
-  </si>
-  <si>
-    <t>category</t>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B35</t>
+  </si>
+  <si>
+    <t>SearchUsingSearchBar</t>
+  </si>
+  <si>
+    <t>JBL EARPHONE T110 BLUE#Xbox One Stealth 600 Gaming Headsets#APPLE TV 4K 64GB MP7P2SOA#OFA 8 In 1 Universal Remote URC1280</t>
+  </si>
+  <si>
+    <t>2#1#2#4</t>
+  </si>
+  <si>
+    <t>All Products</t>
+  </si>
+  <si>
+    <t>Snug Car Juice 3.4A Charger Light Cable - Black#Snug 8000mAh Powerbank LCD Quick Charge Black#SNUG MFI LIGHTING CABLE 1.2M-WHITE</t>
+  </si>
+  <si>
+    <t>2#3#1</t>
+  </si>
+  <si>
+    <t>Cellphones &amp; Accessories</t>
+  </si>
+  <si>
+    <t>SNUG MFI LIGHTING CABLE 2M-WHITE#Solo Urban Metro Universal Fit 5.5-8.5-inch Tablet Case - Bl#Body Glove Apple iPad 9.7-inch (2017) Smartsuit-Black</t>
+  </si>
+  <si>
+    <t>3#1#2</t>
+  </si>
+  <si>
+    <t>Computers Notebooks &amp; Tablet's</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B40</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B41</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B42</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B43</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B44</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B45</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B46</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B47</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B48</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B49</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B50</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B51</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>Firstname</t>
@@ -517,10 +586,7 @@
     <t>Backend_Fisrtname</t>
   </si>
   <si>
-    <t>fake117104580330531@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>fake060155802609402@automationjdg.co.za</t>
   </si>
   <si>
     <t>Backend_Lastname</t>
@@ -845,7 +911,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -854,60 +920,60 @@
         <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
         <v>163</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>165</v>
-      </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>34</v>
@@ -928,45 +994,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
         <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -974,22 +1040,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -997,22 +1063,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1020,22 +1086,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
         <v>116</v>
       </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -1043,22 +1109,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
@@ -1066,22 +1132,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
         <v>116</v>
       </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
         <v>93</v>
@@ -1105,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1116,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1127,7 +1193,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1138,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1149,7 +1215,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1210,13 +1276,13 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1234,54 +1300,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -1292,22 +1358,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -1321,22 +1387,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -1958,10 +2024,10 @@
         <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -1979,7 +2045,7 @@
         <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
@@ -2005,13 +2071,13 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
         <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -2052,13 +2118,13 @@
         <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -2099,13 +2165,13 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -2146,13 +2212,13 @@
         <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -2193,13 +2259,13 @@
         <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
         <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -2211,10 +2277,10 @@
         <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -2234,16 +2300,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -2255,13 +2321,13 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
         <v>34</v>
@@ -2281,13 +2347,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>117</v>
@@ -2500,7 +2566,7 @@
         <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>142</v>
@@ -2527,7 +2593,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,16 +2624,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2578,16 +2644,16 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -2598,16 +2664,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -2618,19 +2684,279 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -8,23 +8,24 @@
   <sheets>
     <sheet name="deliveryPopulation++" r:id="rId3" sheetId="1"/>
     <sheet name="GenerateOrderSAPnumber++" r:id="rId4" sheetId="2"/>
-    <sheet name="CreateaccountBackend++" r:id="rId5" sheetId="3"/>
-    <sheet name="CheckoutpaymentOption++" r:id="rId6" sheetId="4"/>
-    <sheet name="SAP_OrderRelated++" r:id="rId7" sheetId="5"/>
-    <sheet name="PayUPagePayment++" r:id="rId8" sheetId="6"/>
-    <sheet name="OrderStatusSearch++" r:id="rId9" sheetId="7"/>
-    <sheet name="accountCreation++" r:id="rId10" sheetId="8"/>
-    <sheet name="IC" r:id="rId11" sheetId="9"/>
-    <sheet name="ic_CashDepositPayment++" r:id="rId12" sheetId="10"/>
-    <sheet name="Login_magento++" r:id="rId13" sheetId="11"/>
-    <sheet name="ProductSearch++" r:id="rId14" sheetId="12"/>
-    <sheet name="Suites" r:id="rId15" sheetId="13"/>
+    <sheet name="DB_connection_master++" r:id="rId5" sheetId="3"/>
+    <sheet name="CreateaccountBackend++" r:id="rId6" sheetId="4"/>
+    <sheet name="CheckoutpaymentOption++" r:id="rId7" sheetId="5"/>
+    <sheet name="SAP_OrderRelated++" r:id="rId8" sheetId="6"/>
+    <sheet name="PayUPagePayment++" r:id="rId9" sheetId="7"/>
+    <sheet name="OrderStatusSearch++" r:id="rId10" sheetId="8"/>
+    <sheet name="accountCreation++" r:id="rId11" sheetId="9"/>
+    <sheet name="IC" r:id="rId12" sheetId="10"/>
+    <sheet name="ic_CashDepositPayment++" r:id="rId13" sheetId="11"/>
+    <sheet name="Login_magento++" r:id="rId14" sheetId="12"/>
+    <sheet name="ProductSearch++" r:id="rId15" sheetId="13"/>
+    <sheet name="Suites" r:id="rId16" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="199">
   <si>
     <t>Suburb</t>
   </si>
@@ -140,6 +141,57 @@
     <t>240</t>
   </si>
   <si>
+    <t>0005233234</t>
+  </si>
+  <si>
+    <t>DB_Instance</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ECCQA</t>
+  </si>
+  <si>
+    <t>30215</t>
+  </si>
+  <si>
+    <t>225505</t>
+  </si>
+  <si>
+    <t>11.19.2.172</t>
+  </si>
+  <si>
+    <t>Welc0me@2021</t>
+  </si>
+  <si>
+    <t>ECCPROD</t>
+  </si>
+  <si>
+    <t>CRMQA</t>
+  </si>
+  <si>
+    <t>1433 </t>
+  </si>
+  <si>
+    <t>cq1adm</t>
+  </si>
+  <si>
+    <t>11.19.0.68</t>
+  </si>
+  <si>
+    <t>CRMPROD</t>
+  </si>
+  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -170,7 +222,7 @@
     <t>Backend_Fisrtname</t>
   </si>
   <si>
-    <t>fake744203856514923@automationjdg.co.za</t>
+    <t>fake823493071818191@automationjdg.co.za</t>
   </si>
   <si>
     <t>11</t>
@@ -239,7 +291,7 @@
     <t>2026</t>
   </si>
   <si>
-    <t>3100000969</t>
+    <t>3100000989</t>
   </si>
   <si>
     <t>productSearchId</t>
@@ -323,7 +375,7 @@
     <t>Password2</t>
   </si>
   <si>
-    <t>fake029231624728777@automationjdg.co.za</t>
+    <t>fake181154756508120@automationjdg.co.za</t>
   </si>
   <si>
     <t>ID</t>
@@ -338,7 +390,7 @@
     <t>Create new customer in IC and Validate VAT Number</t>
   </si>
   <si>
-    <t>fake570251256341102@automationjdg.co.za</t>
+    <t>fake617702066308821@automationjdg.co.za</t>
   </si>
   <si>
     <t>Create new customer in IC and Validate ID Number</t>
@@ -347,7 +399,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>fake322122237473737@automationjdg.co.za</t>
+    <t>fake484962354167058@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222225</t>
@@ -359,7 +411,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>fake625030886218086@automationjdg.co.za</t>
+    <t>fake340649436136746@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
@@ -371,7 +423,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>fake296064261827662@automationjdg.co.za</t>
+    <t>fake404329475182070@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -383,7 +435,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>fake242679326255516@automationjdg.co.za</t>
+    <t>fake394906054750553@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222228</t>
@@ -503,13 +555,10 @@
     <t>SAP_OrderRelated</t>
   </si>
   <si>
+    <t>DB_connection_master</t>
+  </si>
+  <si>
     <t>Retrived OrderID</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
   </si>
   <si>
     <t>225564</t>
@@ -876,6 +925,630 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -887,13 +1560,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
@@ -901,7 +1574,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -915,7 +1588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -928,13 +1601,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -942,13 +1615,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
@@ -956,13 +1629,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -970,13 +1643,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -984,13 +1657,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -998,13 +1671,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
@@ -1012,13 +1685,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
@@ -1026,13 +1699,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -1040,13 +1713,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -1054,13 +1727,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1741,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1095,16 +1768,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1115,16 +1788,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1135,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1145,45 +1818,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -1191,22 +1864,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -1214,22 +1887,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1237,71 +1910,71 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2049,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -1391,6 +2064,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1400,42 +2171,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1444,25 +2215,25 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
@@ -1473,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1486,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1497,7 +2268,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1508,7 +2279,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1519,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1530,7 +2301,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1541,7 +2312,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1552,9 +2323,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1565,9 +2336,12 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1576,9 +2350,12 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1587,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1597,51 +2374,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
@@ -1650,27 +2427,27 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1679,27 +2456,27 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -1708,36 +2485,36 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +2522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1758,10 +2535,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1772,10 +2549,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1786,10 +2563,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1800,10 +2577,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1814,10 +2591,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1828,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -1838,28 +2615,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1868,28 +2645,28 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="M1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="R1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="S1" t="s">
         <v>12</v>
@@ -1897,980 +2674,356 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="S5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
         <v>113</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>114</v>
       </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" t="s">
         <v>115</v>
       </c>
-      <c r="N6" t="s">
-        <v>98</v>
-      </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" t="s">
+      <c r="Q7" t="s">
         <v>118</v>
       </c>
-      <c r="G7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>101</v>
-      </c>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="S7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>144</v>
-      </c>
-      <c r="M11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s">
-        <v>158</v>
-      </c>
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -19,13 +19,14 @@
     <sheet name="icGiftCardPurchase++" r:id="rId13" sheetId="11"/>
     <sheet name="Login_magento++" r:id="rId14" sheetId="12"/>
     <sheet name="ProductSearch++" r:id="rId15" sheetId="13"/>
-    <sheet name="Suites" r:id="rId16" sheetId="14"/>
+    <sheet name="icGiftCardVerificationSender++" r:id="rId16" sheetId="14"/>
+    <sheet name="Suites" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="236">
   <si>
     <t>Suburb</t>
   </si>
@@ -153,9 +154,15 @@
     <t>Password@123</t>
   </si>
   <si>
+    <t>AutoJDGTest@gmail.com</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>Password2</t>
+  </si>
+  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -186,7 +193,7 @@
     <t>Backend_Fisrtname</t>
   </si>
   <si>
-    <t>fake603160554361708@automationjdg.co.za</t>
+    <t>fake488867862021878@automationjdg.co.za</t>
   </si>
   <si>
     <t>11</t>
@@ -324,10 +331,7 @@
     <t>Brian</t>
   </si>
   <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>fake635421070333658@automationjdg.co.za</t>
+    <t>fake787275058514350@automationjdg.co.za</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +346,7 @@
     <t>Create new customer in IC and Validate VAT Number</t>
   </si>
   <si>
-    <t>fake077542282102675@automationjdg.co.za</t>
+    <t>fake360456087699750@automationjdg.co.za</t>
   </si>
   <si>
     <t>Create new customer in IC and Validate ID Number</t>
@@ -351,9 +355,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>fake521804306931425@automationjdg.co.za</t>
-  </si>
-  <si>
     <t>2222225</t>
   </si>
   <si>
@@ -363,7 +364,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>fake099839868275810@automationjdg.co.za</t>
+    <t>fake649617047845586@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
@@ -375,7 +376,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>fake382062611204530@automationjdg.co.za</t>
+    <t>fake727956141588867@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -387,7 +388,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>fake338165548371089@automationjdg.co.za</t>
+    <t>fake587267550208061@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222228</t>
@@ -504,13 +505,22 @@
     <t>ic_login</t>
   </si>
   <si>
+    <t>icGiftCardPurchase</t>
+  </si>
+  <si>
+    <t>Gift card purchase</t>
+  </si>
+  <si>
+    <t>getnumberOfEmails</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>icGiftCardPurchase</t>
-  </si>
-  <si>
-    <t>Gift card purchase</t>
+    <t>icGiftCardVerificationSender</t>
+  </si>
+  <si>
+    <t>Gift card purchase verifiacation Sender</t>
   </si>
   <si>
     <t>Test Case name</t>
@@ -549,7 +559,7 @@
     <t>Rashad</t>
   </si>
   <si>
-    <t>Bonginhlanhla.Mazibuko@itcinfotech.com</t>
+    <t>AutoJDGTest2@gmail.com</t>
   </si>
   <si>
     <t>Kelly</t>
@@ -561,9 +571,6 @@
     <t>R200</t>
   </si>
   <si>
-    <t>AutoJDGTest@gmail.com</t>
-  </si>
-  <si>
     <t>225505</t>
   </si>
   <si>
@@ -664,6 +671,33 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>serialNumber</t>
+  </si>
+  <si>
+    <t>reciever</t>
+  </si>
+  <si>
+    <t>emailCountAfterGiftCardBuy</t>
+  </si>
+  <si>
+    <t>waitTimeForBarcodeEmailInSec</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>scratchCode</t>
+  </si>
+  <si>
+    <t>emailCountbeforeGiftCardBuy</t>
+  </si>
+  <si>
+    <t>itcjdg2021</t>
   </si>
   <si>
     <t>testSuitName</t>
@@ -973,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -1011,66 +1045,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1105,13 +1139,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
@@ -1119,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
@@ -1133,13 +1167,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
@@ -1147,13 +1181,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -1161,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -1175,13 +1209,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
@@ -1189,13 +1223,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -1203,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -1217,13 +1251,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11">
@@ -1231,13 +1265,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1258,16 +1292,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1278,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
@@ -1287,7 +1321,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1298,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
@@ -1307,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1318,16 +1352,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1338,16 +1372,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>111</v>
@@ -1358,16 +1392,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
         <v>115</v>
@@ -1378,7 +1412,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1387,7 +1421,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
         <v>119</v>
@@ -1398,7 +1432,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1410,7 +1444,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1418,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1438,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1458,7 +1492,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1470,7 +1504,7 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1478,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1490,7 +1524,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13">
@@ -1498,7 +1532,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1510,7 +1544,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1530,7 +1564,7 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15">
@@ -1538,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1558,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -1570,7 +1604,7 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1578,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -1590,7 +1624,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18">
@@ -1598,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -1610,7 +1644,7 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1619,6 +1653,89 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1628,36 +1745,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
         <v>138</v>
@@ -1674,13 +1791,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
         <v>138</v>
@@ -1697,13 +1814,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>138</v>
@@ -1720,13 +1837,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
         <v>138</v>
@@ -1738,18 +1855,18 @@
         <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
         <v>138</v>
@@ -1766,13 +1883,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
         <v>138</v>
@@ -1914,13 +2031,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1938,69 +2055,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
         <v>34</v>
@@ -2024,7 +2141,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2035,7 +2152,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2046,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -2057,7 +2174,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2068,7 +2185,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2079,7 +2196,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -2100,51 +2217,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -2153,27 +2270,27 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -2182,27 +2299,27 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -2211,27 +2328,27 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -2240,7 +2357,7 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2261,10 +2378,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -2275,10 +2392,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2289,10 +2406,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -2303,10 +2420,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -2317,10 +2434,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -2341,28 +2458,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -2371,28 +2488,28 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
         <v>12</v>
@@ -2400,176 +2517,176 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
-        <v>95</v>
-      </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S4" t="s">
         <v>109</v>
@@ -2577,16 +2694,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>110</v>
@@ -2595,40 +2712,40 @@
         <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
         <v>112</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S5" t="s">
         <v>113</v>
@@ -2636,16 +2753,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>114</v>
@@ -2654,40 +2771,40 @@
         <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
         <v>116</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
         <v>117</v>
@@ -2695,16 +2812,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>118</v>
@@ -2713,40 +2830,40 @@
         <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
         <v>120</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S7" t="s">
         <v>121</v>
@@ -2759,7 +2876,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2885,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
         <v>149</v>
@@ -2932,10 +3049,10 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
         <v>34</v>
@@ -2976,13 +3093,13 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
         <v>107</v>
       </c>
-      <c r="I5" t="s">
-        <v>106</v>
-      </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
@@ -3164,7 +3281,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>154</v>
@@ -3243,10 +3360,10 @@
         <v>158</v>
       </c>
       <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" t="s">
-        <v>160</v>
       </c>
       <c r="E11" t="s">
         <v>141</v>
@@ -3261,10 +3378,10 @@
         <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
@@ -3279,6 +3396,53 @@
         <v>34</v>
       </c>
       <c r="O11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="235">
   <si>
     <t>Suburb</t>
   </si>
@@ -118,6 +118,12 @@
     <t>9</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>AutoJDGTest@gmail.com</t>
+  </si>
+  <si>
     <t>totalCounter</t>
   </si>
   <si>
@@ -154,12 +160,6 @@
     <t>Password@123</t>
   </si>
   <si>
-    <t>AutoJDGTest@gmail.com</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Password2</t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Backend_Fisrtname</t>
   </si>
   <si>
-    <t>fake488867862021878@automationjdg.co.za</t>
+    <t>fake223146100024430@automationjdg.co.za</t>
   </si>
   <si>
     <t>11</t>
@@ -331,7 +331,7 @@
     <t>Brian</t>
   </si>
   <si>
-    <t>fake787275058514350@automationjdg.co.za</t>
+    <t>fake430243281580300@automationjdg.co.za</t>
   </si>
   <si>
     <t>ID</t>
@@ -346,7 +346,7 @@
     <t>Create new customer in IC and Validate VAT Number</t>
   </si>
   <si>
-    <t>fake360456087699750@automationjdg.co.za</t>
+    <t>fake405166777548214@automationjdg.co.za</t>
   </si>
   <si>
     <t>Create new customer in IC and Validate ID Number</t>
@@ -364,7 +364,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>fake649617047845586@automationjdg.co.za</t>
+    <t>fake736557570573372@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
@@ -376,7 +376,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>fake727956141588867@automationjdg.co.za</t>
+    <t>fake407521424325957@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -388,7 +388,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>fake587267550208061@automationjdg.co.za</t>
+    <t>fake185322043795860@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222228</t>
@@ -517,12 +517,12 @@
     <t>yes</t>
   </si>
   <si>
+    <t>Gift card purchase verifiacation Sender</t>
+  </si>
+  <si>
     <t>icGiftCardVerificationSender</t>
   </si>
   <si>
-    <t>Gift card purchase verifiacation Sender</t>
-  </si>
-  <si>
     <t>Test Case name</t>
   </si>
   <si>
@@ -557,9 +557,6 @@
   </si>
   <si>
     <t>Rashad</t>
-  </si>
-  <si>
-    <t>AutoJDGTest2@gmail.com</t>
   </si>
   <si>
     <t>Kelly</t>
@@ -778,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -986,6 +983,47 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1027,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1086,25 +1124,57 @@
         <v>176</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>178</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
         <v>179</v>
       </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>180</v>
-      </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1125,13 +1195,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -1139,13 +1209,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3">
@@ -1153,13 +1223,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -1167,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -1181,13 +1251,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -1195,13 +1265,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -1209,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
@@ -1223,13 +1293,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -1237,13 +1307,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
@@ -1251,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
@@ -1265,13 +1335,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>181</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1292,16 +1362,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>185</v>
-      </c>
-      <c r="E1" t="s">
-        <v>186</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1312,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
@@ -1321,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1332,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
@@ -1341,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1352,16 +1422,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>189</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>190</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1372,16 +1442,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>192</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>193</v>
-      </c>
-      <c r="E5" t="s">
-        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>111</v>
@@ -1392,16 +1462,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>195</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>196</v>
-      </c>
-      <c r="E6" t="s">
-        <v>197</v>
       </c>
       <c r="F6" t="s">
         <v>115</v>
@@ -1412,16 +1482,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
         <v>119</v>
@@ -1432,16 +1502,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1452,16 +1522,16 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1472,19 +1542,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1492,16 +1562,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -1512,19 +1582,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13">
@@ -1532,19 +1602,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
         <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14">
@@ -1552,19 +1622,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
         <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15">
@@ -1572,19 +1642,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -1592,19 +1662,19 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1612,19 +1682,19 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
         <v>211</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18">
@@ -1632,19 +1702,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>213</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1668,31 +1738,31 @@
         <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>216</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>217</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>218</v>
-      </c>
-      <c r="G1" t="s">
-        <v>219</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
-      </c>
-      <c r="K1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2">
@@ -1700,34 +1770,34 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1745,30 +1815,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>124</v>
       </c>
       <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>226</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>228</v>
-      </c>
-      <c r="G1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -1780,7 +1850,7 @@
         <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>138</v>
@@ -1791,7 +1861,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>138</v>
@@ -1803,7 +1873,7 @@
         <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -1814,7 +1884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>138</v>
@@ -1826,7 +1896,7 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>138</v>
@@ -1837,7 +1907,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>138</v>
@@ -1849,7 +1919,7 @@
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>138</v>
@@ -1860,7 +1930,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>138</v>
@@ -1872,7 +1942,7 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>138</v>
@@ -1883,7 +1953,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -1895,7 +1965,7 @@
         <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>138</v>
@@ -1922,16 +1992,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1939,16 +2009,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1956,16 +2026,16 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1973,16 +2043,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2003,13 +2073,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -2017,13 +2087,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -2031,10 +2101,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -2096,7 +2166,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -2120,7 +2190,7 @@
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2200,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2199,7 +2269,18 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2264,7 +2345,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -2293,7 +2374,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -2322,7 +2403,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -2351,12 +2432,41 @@
         <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2440,7 +2550,7 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2781,7 @@
         <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
@@ -2931,7 +3041,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>137</v>
@@ -2961,7 +3071,7 @@
         <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
         <v>144</v>
@@ -2973,12 +3083,12 @@
         <v>146</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>147</v>
@@ -2990,13 +3100,13 @@
         <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -3008,24 +3118,24 @@
         <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>147</v>
@@ -3040,10 +3150,10 @@
         <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -3055,24 +3165,24 @@
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
@@ -3087,10 +3197,10 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>108</v>
@@ -3102,24 +3212,24 @@
         <v>107</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>147</v>
@@ -3134,10 +3244,10 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>111</v>
@@ -3149,24 +3259,24 @@
         <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>147</v>
@@ -3181,10 +3291,10 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>115</v>
@@ -3196,24 +3306,24 @@
         <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>147</v>
@@ -3228,10 +3338,10 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
         <v>119</v>
@@ -3243,19 +3353,19 @@
         <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -3272,13 +3382,13 @@
         <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
         <v>59</v>
@@ -3290,19 +3400,19 @@
         <v>155</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -3337,24 +3447,24 @@
         <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
         <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>158</v>
@@ -3375,7 +3485,7 @@
         <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>160</v>
@@ -3384,7 +3494,7 @@
         <v>160</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
         <v>145</v>
@@ -3393,15 +3503,15 @@
         <v>146</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>161</v>
@@ -3410,40 +3520,40 @@
         <v>162</v>
       </c>
       <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
         <v>163</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
         <v>164</v>
       </c>
-      <c r="J12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -6,28 +6,156 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="deliveryPopulation++" r:id="rId3" sheetId="1"/>
-    <sheet name="GenerateOrderSAPnumber++" r:id="rId4" sheetId="2"/>
-    <sheet name="ic_login++" r:id="rId5" sheetId="3"/>
-    <sheet name="SapCustomer++" r:id="rId6" sheetId="4"/>
-    <sheet name="CreateaccountBackend++" r:id="rId7" sheetId="5"/>
-    <sheet name="CheckoutpaymentOption++" r:id="rId8" sheetId="6"/>
-    <sheet name="ICUpdateUser++" r:id="rId9" sheetId="7"/>
-    <sheet name="PayUPagePayment++" r:id="rId10" sheetId="8"/>
-    <sheet name="OrderStatusSearch++" r:id="rId11" sheetId="9"/>
-    <sheet name="accountCreation++" r:id="rId12" sheetId="10"/>
-    <sheet name="IC" r:id="rId13" sheetId="11"/>
-    <sheet name="ic_CashDepositPayment++" r:id="rId14" sheetId="12"/>
-    <sheet name="icGiftCardPurchase++" r:id="rId15" sheetId="13"/>
-    <sheet name="Login_magento++" r:id="rId16" sheetId="14"/>
-    <sheet name="ProductSearch++" r:id="rId17" sheetId="15"/>
-    <sheet name="Suites" r:id="rId18" sheetId="16"/>
+    <sheet name="adminUserUpdate++" r:id="rId3" sheetId="1"/>
+    <sheet name="deliveryPopulation++" r:id="rId4" sheetId="2"/>
+    <sheet name="GenerateOrderSAPnumber++" r:id="rId5" sheetId="3"/>
+    <sheet name="ic_login++" r:id="rId6" sheetId="4"/>
+    <sheet name="SapCustomer++" r:id="rId7" sheetId="5"/>
+    <sheet name="DB_connection_master++" r:id="rId8" sheetId="6"/>
+    <sheet name="CreateaccountBackend++" r:id="rId9" sheetId="7"/>
+    <sheet name="CheckoutpaymentOption++" r:id="rId10" sheetId="8"/>
+    <sheet name="ICUpdateUser++" r:id="rId11" sheetId="9"/>
+    <sheet name="PayUPagePayment++" r:id="rId12" sheetId="10"/>
+    <sheet name="OrderStatusSearch++" r:id="rId13" sheetId="11"/>
+    <sheet name="accountCreation++" r:id="rId14" sheetId="12"/>
+    <sheet name="IC" r:id="rId15" sheetId="13"/>
+    <sheet name="ic_CashDepositPayment++" r:id="rId16" sheetId="14"/>
+    <sheet name="icGiftCardPurchase++" r:id="rId17" sheetId="15"/>
+    <sheet name="Login_magento++" r:id="rId18" sheetId="16"/>
+    <sheet name="ProductSearch++" r:id="rId19" sheetId="17"/>
+    <sheet name="Suites" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="332">
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>shipping_streetAddress_Output</t>
+  </si>
+  <si>
+    <t>shipping_streetAddress</t>
+  </si>
+  <si>
+    <t>adminBilling_streetAddress_output</t>
+  </si>
+  <si>
+    <t>shipping_provinceName_output</t>
+  </si>
+  <si>
+    <t>shipping_city_output</t>
+  </si>
+  <si>
+    <t>occurence</t>
+  </si>
+  <si>
+    <t>emailAddress_input</t>
+  </si>
+  <si>
+    <t>shipping_buildingDetails_output</t>
+  </si>
+  <si>
+    <t>adminFirstName_output</t>
+  </si>
+  <si>
+    <t>adminEmail_output</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>billing_city_output</t>
+  </si>
+  <si>
+    <t>billing_streetAddress</t>
+  </si>
+  <si>
+    <t>billing_postalCode_output</t>
+  </si>
+  <si>
+    <t>billing_provinceName_output</t>
+  </si>
+  <si>
+    <t>adminLastName_output</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>shipping_suburb_output</t>
+  </si>
+  <si>
+    <t>billing_suburb_output</t>
+  </si>
+  <si>
+    <t>billing_buildingDetails_output</t>
+  </si>
+  <si>
+    <t>shippingAddress</t>
+  </si>
+  <si>
+    <t>billingAddress</t>
+  </si>
+  <si>
+    <t>shipping_postalCode_output</t>
+  </si>
+  <si>
+    <t>taxVat</t>
+  </si>
+  <si>
+    <t>adminTaxVat_output</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Northern Cape</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>original2Ic@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>Updated1269</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
   <si>
     <t>Suburb</t>
   </si>
@@ -44,27 +172,15 @@
     <t>idNumber</t>
   </si>
   <si>
-    <t>TCID</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
-    <t>occurence</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
     <t>streetName</t>
   </si>
   <si>
     <t>province</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>vatNumber</t>
   </si>
   <si>
@@ -83,9 +199,6 @@
     <t>9109105800080</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Shabalala</t>
   </si>
   <si>
@@ -125,12 +238,30 @@
     <t>0670441100</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>39 Pritchard Street</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>0670441101</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>40 Pritchard Street</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>0670441102</t>
+  </si>
+  <si>
+    <t>41 Pritchard Street</t>
+  </si>
+  <si>
     <t>totalCounter</t>
   </si>
   <si>
@@ -143,18 +274,12 @@
     <t>10</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
     <t>240</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -167,7 +292,7 @@
     <t>Password@123</t>
   </si>
   <si>
-    <t>fake570945622889867@automationjdg.co.za</t>
+    <t>2575Updated3585Updated8931Updatedfake567@automationjdg.co.za</t>
   </si>
   <si>
     <t>Password2</t>
@@ -194,7 +319,58 @@
     <t>Customer Creation</t>
   </si>
   <si>
-    <t>17</t>
+    <t>Customer Update Magento Admin</t>
+  </si>
+  <si>
+    <t>Customer Creation Magento Admin</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>TypeOfDB</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>30215</t>
+  </si>
+  <si>
+    <t>225505</t>
+  </si>
+  <si>
+    <t>HANA</t>
+  </si>
+  <si>
+    <t>11.19.2.172</t>
+  </si>
+  <si>
+    <t>Welc0me@2021</t>
+  </si>
+  <si>
+    <t>ECCPROD</t>
+  </si>
+  <si>
+    <t>CRMQA</t>
+  </si>
+  <si>
+    <t>1433 </t>
+  </si>
+  <si>
+    <t>cq1adm</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>11.19.0.68</t>
+  </si>
+  <si>
+    <t>#D3*t3R#</t>
+  </si>
+  <si>
+    <t>CRMPROD</t>
   </si>
   <si>
     <t>Firstname</t>
@@ -224,16 +400,16 @@
     <t>BPnumber</t>
   </si>
   <si>
-    <t>Backend_Fisrtname</t>
-  </si>
-  <si>
-    <t>fake891514291361650@automationjdg.co.za</t>
+    <t>BackendFirstname</t>
+  </si>
+  <si>
+    <t>fake875717084875566@automationjdg.co.za</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Backend_Lastname</t>
+    <t>BackendLastname</t>
   </si>
   <si>
     <t>Main Website</t>
@@ -245,6 +421,15 @@
     <t>7503226018089</t>
   </si>
   <si>
+    <t>fake156707884271208@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>8706149754081</t>
+  </si>
+  <si>
+    <t>fake868821332196721@automationjdg.co.za</t>
+  </si>
+  <si>
     <t>Paytype_Option</t>
   </si>
   <si>
@@ -257,27 +442,9 @@
     <t>passWord</t>
   </si>
   <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>shipping_streetAddress_Output</t>
-  </si>
-  <si>
-    <t>shipping_streetAddress</t>
-  </si>
-  <si>
-    <t>shipping_provinceName_output</t>
-  </si>
-  <si>
     <t>lastName_output</t>
   </si>
   <si>
-    <t>shipping_city_output</t>
-  </si>
-  <si>
-    <t>shipping_buildingDetails_output</t>
-  </si>
-  <si>
     <t>firstName_output</t>
   </si>
   <si>
@@ -287,63 +454,12 @@
     <t>email_output</t>
   </si>
   <si>
-    <t>billing_city_output</t>
-  </si>
-  <si>
-    <t>billing_streetAddress</t>
-  </si>
-  <si>
     <t>taxVat_output</t>
   </si>
   <si>
-    <t>billing_postalCode_output</t>
-  </si>
-  <si>
-    <t>billing_provinceName_output</t>
-  </si>
-  <si>
-    <t>shipping_suburb_output</t>
-  </si>
-  <si>
     <t>passWord_output</t>
   </si>
   <si>
-    <t>billing_suburb_output</t>
-  </si>
-  <si>
-    <t>billing_buildingDetails_output</t>
-  </si>
-  <si>
-    <t>shippingAddress</t>
-  </si>
-  <si>
-    <t>billingAddress</t>
-  </si>
-  <si>
-    <t>shipping_postalCode_output</t>
-  </si>
-  <si>
-    <t>taxVat</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Northern Cape</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -455,7 +571,7 @@
     <t>Brian</t>
   </si>
   <si>
-    <t>fake085532827930078@automationjdg.co.za</t>
+    <t>fake254026896412881@automationjdg.co.za</t>
   </si>
   <si>
     <t>ID</t>
@@ -470,16 +586,13 @@
     <t>Create new customer in IC and Validate VAT Number</t>
   </si>
   <si>
-    <t>fake318684487248185@automationjdg.co.za</t>
+    <t>fake354896530222849@automationjdg.co.za</t>
   </si>
   <si>
     <t>Create new customer in IC and Validate ID Number</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>fake921478268078309@automationjdg.co.za</t>
+    <t>fake274134674334116@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222225</t>
@@ -488,7 +601,7 @@
     <t>Create new customer in IC and Validate Passport</t>
   </si>
   <si>
-    <t>fake249902503015001@automationjdg.co.za</t>
+    <t>fake105045917368747@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
@@ -497,7 +610,7 @@
     <t>Create new customer in IC and Validate with Newsletter</t>
   </si>
   <si>
-    <t>fake256528820586574@automationjdg.co.za</t>
+    <t>fake863457340157536@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -506,13 +619,13 @@
     <t>Create new customer in IC and Validate without newsletter</t>
   </si>
   <si>
-    <t>fake907087701741072@automationjdg.co.za</t>
+    <t>fake255064500737840@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222228</t>
   </si>
   <si>
-    <t>fake159588551389116@automationjdg.co.za</t>
+    <t>fake331595747558292@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222229</t>
@@ -530,12 +643,24 @@
     <t>Jessica</t>
   </si>
   <si>
-    <t>fake301864523412003@automationjdg.co.za</t>
+    <t>fake059551387800684@automationjdg.co.za</t>
   </si>
   <si>
     <t>222223081</t>
   </si>
   <si>
+    <t>fake184268702088734@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>222223082</t>
+  </si>
+  <si>
+    <t>fake815615578359139@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>222223083</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -653,6 +778,9 @@
     <t>SapCustomer</t>
   </si>
   <si>
+    <t>DB_connection_master</t>
+  </si>
+  <si>
     <t>SapCustomerUpdate</t>
   </si>
   <si>
@@ -662,6 +790,15 @@
     <t>SapCustomerCreation</t>
   </si>
   <si>
+    <t>adminUserUpdate</t>
+  </si>
+  <si>
+    <t>SapCustomerUpdateBackend</t>
+  </si>
+  <si>
+    <t>SapCustomerCreationBackend</t>
+  </si>
+  <si>
     <t>Test Case name</t>
   </si>
   <si>
@@ -764,9 +901,6 @@
     <t>350</t>
   </si>
   <si>
-    <t>225505</t>
-  </si>
-  <si>
     <t>Password4</t>
   </si>
   <si>
@@ -855,9 +989,6 @@
   </si>
   <si>
     <t>Sandisk Cruzer Blade USB 16GB SDCZ50-016G-B51</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>testSuitName</t>
@@ -938,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -984,210 +1115,628 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1205,533 +1754,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s">
-        <v>153</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" t="s">
-        <v>156</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>144</v>
-      </c>
-      <c r="R6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S6" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="s">
-        <v>159</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>144</v>
-      </c>
-      <c r="R7" t="s">
-        <v>99</v>
-      </c>
-      <c r="S7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="s">
-        <v>167</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>144</v>
-      </c>
-      <c r="R9" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1749,613 +1912,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" t="s">
-        <v>152</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>202</v>
-      </c>
-      <c r="J10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="s">
-        <v>192</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" t="s">
         <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" t="s">
-        <v>205</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" t="s">
-        <v>192</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" t="s">
-        <v>209</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s">
-        <v>210</v>
-      </c>
-      <c r="J13" t="s">
-        <v>209</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2364,6 +1986,1433 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>182</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>182</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" t="s">
+        <v>233</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2373,30 +3422,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -2414,194 +3463,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="J5" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="J6" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2609,9 +3658,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2619,184 +3668,212 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2804,7 +3881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -2814,299 +3891,299 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -3114,62 +4191,62 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +4254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3187,163 +4264,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="F1" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="G1" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3352,6 +4429,347 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3361,70 +4779,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3432,7 +4850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3442,44 +4860,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3487,9 +4905,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3497,86 +4915,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3584,9 +5030,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3594,72 +5040,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5143,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3677,65 +5306,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -3746,9 +5375,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3756,1361 +5385,1378 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="Q1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="W1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="Y1" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="AA1" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="AB1" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="T6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB6" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="AA8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="Z9" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="T10" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB10" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="T11" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB11" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="S12" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="T12" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="X12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AA12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>144</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" t="s">
-        <v>102</v>
-      </c>
-      <c r="S13" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" t="s">
-        <v>106</v>
-      </c>
-      <c r="U13" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" t="s">
-        <v>38</v>
-      </c>
-      <c r="W13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="T15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
+      <c r="T16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="363">
   <si>
     <t>TCID</t>
   </si>
@@ -492,6 +492,12 @@
     <t>Gift Card Redeem - Registered user</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Cancel sales order-Magento Admin</t>
+  </si>
+  <si>
     <t>Paytype_Option</t>
   </si>
   <si>
@@ -507,6 +513,9 @@
     <t>Cash_Deposits</t>
   </si>
   <si>
+    <t>Cancel Sales order-Magento Admin</t>
+  </si>
+  <si>
     <t>streetName</t>
   </si>
   <si>
@@ -573,6 +582,9 @@
     <t>AutoJDGTest@gmail.com</t>
   </si>
   <si>
+    <t>Cancel sales order</t>
+  </si>
+  <si>
     <t>selectAmountFlag</t>
   </si>
   <si>
@@ -624,6 +636,9 @@
     <t>240</t>
   </si>
   <si>
+    <t>cancel sales order</t>
+  </si>
+  <si>
     <t>orderID</t>
   </si>
   <si>
@@ -642,6 +657,12 @@
     <t>Canceled</t>
   </si>
   <si>
+    <t>cancel sales order-Magento Admin</t>
+  </si>
+  <si>
+    <t>3100001256</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -654,6 +675,15 @@
     <t>Password4</t>
   </si>
   <si>
+    <t>Cancel sales order-magento Admin</t>
+  </si>
+  <si>
+    <t>225564</t>
+  </si>
+  <si>
+    <t>Access#3</t>
+  </si>
+  <si>
     <t>typeSearch</t>
   </si>
   <si>
@@ -708,6 +738,12 @@
     <t>3#1#2</t>
   </si>
   <si>
+    <t>Cancel sales order magento Admin</t>
+  </si>
+  <si>
+    <t>Xbox One S 1TB + Far Cry Primal + Black Ops 4</t>
+  </si>
+  <si>
     <t>scratchCode</t>
   </si>
   <si>
@@ -867,7 +903,7 @@
     <t>Backend_Lastname</t>
   </si>
   <si>
-    <t>fake405037554824917@automationjdg.co.za</t>
+    <t>fake679326144183103@automationjdg.co.za</t>
   </si>
   <si>
     <t>7503226018089</t>
@@ -876,10 +912,10 @@
     <t>Main Website</t>
   </si>
   <si>
-    <t>fake515576077547784@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake055933214637283@automationjdg.co.za</t>
+    <t>fake743575658381771@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake786715671347170@automationjdg.co.za</t>
   </si>
   <si>
     <t>abcd1234</t>
@@ -930,7 +966,7 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>fake883903505047606@automationjdg.co.za</t>
+    <t>fake535715541903774@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222224</t>
@@ -945,7 +981,7 @@
     <t>5311266534086</t>
   </si>
   <si>
-    <t>fake827514183850000@automationjdg.co.za</t>
+    <t>fake652076040140730@automationjdg.co.za</t>
   </si>
   <si>
     <t>9708027466084</t>
@@ -957,13 +993,13 @@
     <t>5311ABGF25</t>
   </si>
   <si>
-    <t>fake488984763711713@automationjdg.co.za</t>
+    <t>fake552697582659115@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
   </si>
   <si>
-    <t>fake940066830044150@automationjdg.co.za</t>
+    <t>fake292805120533480@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -975,7 +1011,7 @@
     <t>Create New Customer - Validate Registration Form - validate Existing Account</t>
   </si>
   <si>
-    <t>fake585408232110480@automationjdg.co.za</t>
+    <t>fake151649642887845@automationjdg.co.za</t>
   </si>
   <si>
     <t>22</t>
@@ -984,7 +1020,7 @@
     <t>Create New Customer - Validate Registration Form -Password Field</t>
   </si>
   <si>
-    <t>fake218396824073864@automationjdg.co.za</t>
+    <t>fake528543514855281@automationjdg.co.za</t>
   </si>
   <si>
     <t>23</t>
@@ -993,7 +1029,7 @@
     <t>Create New Customer - Validate Registration Form - SAID Field With Less than 13 Digits</t>
   </si>
   <si>
-    <t>fake418388269301706@automationjdg.co.za</t>
+    <t>fake107310518385551@automationjdg.co.za</t>
   </si>
   <si>
     <t>24</t>
@@ -1002,7 +1038,7 @@
     <t>Create New Customer - Validate Registration Form -- SAID Field With More than 13 Digits</t>
   </si>
   <si>
-    <t>fake474057028134402@automationjdg.co.za</t>
+    <t>fake936648588451665@automationjdg.co.za</t>
   </si>
   <si>
     <t>25</t>
@@ -1011,7 +1047,7 @@
     <t>Create New Customer - Validate Registration Form - Incorrect SAID</t>
   </si>
   <si>
-    <t>fake911207664109317@automationjdg.co.za</t>
+    <t>fake322244483273133@automationjdg.co.za</t>
   </si>
   <si>
     <t>TestCaseID</t>
@@ -1388,10 +1424,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1592,13 +1628,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -1615,7 +1651,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1635,7 +1671,7 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1655,7 +1691,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1675,7 +1711,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1683,10 +1719,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1695,7 +1731,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1715,7 +1751,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1735,7 +1771,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1755,7 +1791,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1775,7 +1811,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1783,19 +1819,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1845,10 +1881,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
@@ -1865,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -1882,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -1899,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1916,15 +1952,15 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1933,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -1950,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
@@ -1967,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
@@ -1984,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -1998,10 +2034,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11">
@@ -2015,10 +2051,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12">
@@ -2032,10 +2068,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13">
@@ -2049,10 +2085,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -2069,24 +2105,24 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
@@ -2113,7 +2149,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -2147,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -2164,10 +2200,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -2181,10 +2217,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
@@ -2198,10 +2234,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -2215,10 +2251,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -2249,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -2266,10 +2302,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -2283,10 +2319,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
@@ -2300,10 +2336,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12">
@@ -2317,10 +2353,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
@@ -2334,10 +2370,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -2351,10 +2387,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -2368,10 +2404,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
@@ -2385,10 +2421,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -2402,10 +2438,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
@@ -2419,10 +2455,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
@@ -2436,10 +2472,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
@@ -2453,10 +2489,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
@@ -2470,10 +2506,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -2487,10 +2523,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -2504,10 +2540,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
@@ -2521,10 +2557,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
@@ -2538,27 +2574,27 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -2572,10 +2608,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -2589,10 +2625,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -2606,10 +2642,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
@@ -2623,10 +2659,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -2640,10 +2676,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32">
@@ -2657,10 +2693,27 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2723,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2687,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -2748,10 +2801,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2776,128 +2829,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2848,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2924,16 +2865,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
@@ -2947,10 +2888,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>92</v>
@@ -2970,10 +2911,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -2993,13 +2934,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
         <v>83</v>
@@ -3016,10 +2957,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
         <v>92</v>
@@ -3030,19 +2971,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
         <v>92</v>
@@ -3062,10 +3003,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
@@ -3085,10 +3026,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>92</v>
@@ -3108,10 +3049,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -3131,13 +3072,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G10" t="s">
         <v>83</v>
@@ -3154,13 +3095,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
         <v>83</v>
@@ -3177,13 +3118,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
@@ -3200,10 +3141,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -3223,10 +3164,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -3246,10 +3187,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -3269,10 +3210,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -3292,10 +3233,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -3315,10 +3256,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
         <v>92</v>
@@ -3338,10 +3279,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F19" t="s">
         <v>92</v>
@@ -3361,10 +3302,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
         <v>92</v>
@@ -3384,10 +3325,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -3407,10 +3348,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
@@ -3430,10 +3371,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
         <v>92</v>
@@ -3453,10 +3394,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F24" t="s">
         <v>92</v>
@@ -3476,10 +3417,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F25" t="s">
         <v>92</v>
@@ -3499,15 +3440,38 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s">
         <v>92</v>
       </c>
       <c r="G26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3538,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
@@ -3552,10 +3516,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
@@ -3569,10 +3533,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
@@ -3586,10 +3550,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
@@ -3603,10 +3567,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3630,16 +3594,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -3650,16 +3614,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3">
@@ -3670,16 +3634,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3706,10 +3670,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -3723,10 +3687,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
@@ -3740,10 +3704,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -3757,10 +3721,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
@@ -3774,10 +3738,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
@@ -3791,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
@@ -3808,10 +3772,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
@@ -3825,10 +3789,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9">
@@ -3842,10 +3806,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
@@ -3985,19 +3949,19 @@
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -4008,19 +3972,19 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -4028,7 +3992,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -4051,22 +4015,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -4074,7 +4038,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -4731,31 +4695,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="H1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
@@ -4766,10 +4730,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4781,7 +4745,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -4801,10 +4765,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4816,7 +4780,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -4849,10 +4813,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
@@ -4863,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4893,31 +4857,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="J1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
@@ -4931,25 +4895,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K2" t="s">
         <v>55</v>
@@ -4969,25 +4933,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
@@ -5007,25 +4971,25 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
@@ -5394,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5406,46 +5370,46 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="N1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="O1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="P1" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="R1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
@@ -5459,37 +5423,37 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -5518,37 +5482,37 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="K3" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N3" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="O3" t="s">
         <v>50</v>
@@ -5577,37 +5541,37 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L4" t="s">
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N4" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O4" t="s">
         <v>50</v>
@@ -5636,37 +5600,37 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N5" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="O5" t="s">
         <v>50</v>
@@ -5695,37 +5659,37 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K6" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N6" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
@@ -5745,46 +5709,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K7" t="s">
         <v>310</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
         <v>311</v>
       </c>
-      <c r="G7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>299</v>
-      </c>
       <c r="N7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="O7" t="s">
         <v>49</v>
@@ -5804,46 +5768,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" t="s">
+        <v>310</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N8" t="s">
         <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" t="s">
-        <v>298</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" t="s">
-        <v>299</v>
-      </c>
-      <c r="N8" t="s">
-        <v>300</v>
       </c>
       <c r="O8" t="s">
         <v>50</v>
@@ -5863,46 +5827,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N9" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="O9" t="s">
         <v>50</v>
@@ -5922,46 +5886,46 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>320</v>
       </c>
-      <c r="G10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" t="s">
-        <v>235</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N10" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="O10" t="s">
         <v>50</v>
@@ -5981,46 +5945,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G11" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H11" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K11" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L11" t="s">
         <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N11" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="O11" t="s">
         <v>50</v>
@@ -6053,69 +6017,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="D1" t="s">
         <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="M1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -6141,22 +6105,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6204,10 +6168,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
@@ -6218,10 +6182,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
@@ -6232,10 +6196,10 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
@@ -6246,10 +6210,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
@@ -6260,10 +6224,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
@@ -6274,10 +6238,10 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
@@ -6288,10 +6252,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
@@ -6302,10 +6266,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
@@ -6316,10 +6280,10 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
@@ -6330,10 +6294,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
@@ -6344,10 +6308,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
@@ -6358,10 +6322,10 @@
         <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
@@ -6372,10 +6336,10 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6393,43 +6357,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
@@ -6437,19 +6401,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6478,19 +6442,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6529,43 +6493,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
@@ -6573,19 +6537,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6614,19 +6578,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6665,43 +6629,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
@@ -6709,19 +6673,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6750,19 +6714,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6801,43 +6765,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
@@ -6845,19 +6809,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6886,19 +6850,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -9728,7 +9692,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10246,6 +10210,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10253,7 +10249,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10270,7 +10266,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
@@ -10284,7 +10280,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -10298,7 +10294,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -10312,7 +10308,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
@@ -10326,21 +10322,21 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -10354,7 +10350,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
@@ -10368,7 +10364,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -10382,7 +10378,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -10396,7 +10392,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -10410,7 +10406,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -10424,7 +10420,21 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -10434,7 +10444,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10451,37 +10461,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -10495,37 +10505,37 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" t="s">
         <v>170</v>
       </c>
-      <c r="L2" t="s">
-        <v>167</v>
-      </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
@@ -10539,37 +10549,37 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
         <v>170</v>
       </c>
-      <c r="L3" t="s">
-        <v>167</v>
-      </c>
       <c r="M3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -10583,37 +10593,37 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
         <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" t="s">
         <v>170</v>
       </c>
-      <c r="L4" t="s">
-        <v>167</v>
-      </c>
       <c r="M4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -10627,81 +10637,81 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
         <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" t="s">
         <v>170</v>
       </c>
-      <c r="L5" t="s">
-        <v>167</v>
-      </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" t="s">
         <v>170</v>
       </c>
-      <c r="L6" t="s">
-        <v>167</v>
-      </c>
       <c r="M6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7">
@@ -10715,37 +10725,37 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" t="s">
         <v>170</v>
       </c>
-      <c r="L7" t="s">
-        <v>167</v>
-      </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8">
@@ -10759,37 +10769,37 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" t="s">
         <v>170</v>
       </c>
-      <c r="L8" t="s">
-        <v>167</v>
-      </c>
       <c r="M8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
@@ -10803,37 +10813,81 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
         <v>72</v>
       </c>
       <c r="I9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
         <v>168</v>
       </c>
-      <c r="J9" t="s">
+      <c r="F10" t="s">
         <v>169</v>
       </c>
-      <c r="K9" t="s">
+      <c r="G10" t="s">
         <v>170</v>
       </c>
-      <c r="L9" t="s">
-        <v>167</v>
-      </c>
-      <c r="M9" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" t="s">
-        <v>175</v>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10914,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -10898,25 +10952,25 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
@@ -10933,25 +10987,25 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -10968,25 +11022,25 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -11003,25 +11057,25 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -11038,25 +11092,25 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -867,7 +867,7 @@
     <t>Backend_Lastname</t>
   </si>
   <si>
-    <t>fake405037554824917@automationjdg.co.za</t>
+    <t>fake107526867660112@automationjdg.co.za</t>
   </si>
   <si>
     <t>7503226018089</t>
@@ -876,10 +876,10 @@
     <t>Main Website</t>
   </si>
   <si>
-    <t>fake515576077547784@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake055933214637283@automationjdg.co.za</t>
+    <t>fake261611228615313@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake164096487844381@automationjdg.co.za</t>
   </si>
   <si>
     <t>abcd1234</t>
@@ -930,7 +930,7 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>fake883903505047606@automationjdg.co.za</t>
+    <t>fake041558779642091@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222224</t>
@@ -945,7 +945,7 @@
     <t>5311266534086</t>
   </si>
   <si>
-    <t>fake827514183850000@automationjdg.co.za</t>
+    <t>fake634140485849656@automationjdg.co.za</t>
   </si>
   <si>
     <t>9708027466084</t>
@@ -957,13 +957,13 @@
     <t>5311ABGF25</t>
   </si>
   <si>
-    <t>fake488984763711713@automationjdg.co.za</t>
+    <t>fake501709322618150@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
   </si>
   <si>
-    <t>fake940066830044150@automationjdg.co.za</t>
+    <t>fake581920703738205@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -975,7 +975,7 @@
     <t>Create New Customer - Validate Registration Form - validate Existing Account</t>
   </si>
   <si>
-    <t>fake585408232110480@automationjdg.co.za</t>
+    <t>fake616337510515276@automationjdg.co.za</t>
   </si>
   <si>
     <t>22</t>
@@ -984,7 +984,7 @@
     <t>Create New Customer - Validate Registration Form -Password Field</t>
   </si>
   <si>
-    <t>fake218396824073864@automationjdg.co.za</t>
+    <t>fake938294267416205@automationjdg.co.za</t>
   </si>
   <si>
     <t>23</t>
@@ -993,7 +993,7 @@
     <t>Create New Customer - Validate Registration Form - SAID Field With Less than 13 Digits</t>
   </si>
   <si>
-    <t>fake418388269301706@automationjdg.co.za</t>
+    <t>fake434879418133034@automationjdg.co.za</t>
   </si>
   <si>
     <t>24</t>
@@ -1002,7 +1002,7 @@
     <t>Create New Customer - Validate Registration Form -- SAID Field With More than 13 Digits</t>
   </si>
   <si>
-    <t>fake474057028134402@automationjdg.co.za</t>
+    <t>fake702326010663179@automationjdg.co.za</t>
   </si>
   <si>
     <t>25</t>
@@ -1011,7 +1011,7 @@
     <t>Create New Customer - Validate Registration Form - Incorrect SAID</t>
   </si>
   <si>
-    <t>fake911207664109317@automationjdg.co.za</t>
+    <t>fake917642106090980@automationjdg.co.za</t>
   </si>
   <si>
     <t>TestCaseID</t>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="353">
   <si>
     <t>TCID</t>
   </si>
@@ -468,6 +468,9 @@
     <t>Gift Card Purchase - Guest User</t>
   </si>
   <si>
+    <t>387</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
@@ -636,6 +639,9 @@
     <t>Pending Payment</t>
   </si>
   <si>
+    <t>3100001253</t>
+  </si>
+  <si>
     <t>3100000680</t>
   </si>
   <si>
@@ -867,7 +873,7 @@
     <t>Backend_Lastname</t>
   </si>
   <si>
-    <t>fake405037554824917@automationjdg.co.za</t>
+    <t>fake608272263561677@automationjdg.co.za</t>
   </si>
   <si>
     <t>7503226018089</t>
@@ -876,10 +882,10 @@
     <t>Main Website</t>
   </si>
   <si>
-    <t>fake515576077547784@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake055933214637283@automationjdg.co.za</t>
+    <t>fake523543956504195@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake245240200392343@automationjdg.co.za</t>
   </si>
   <si>
     <t>abcd1234</t>
@@ -930,7 +936,7 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>fake883903505047606@automationjdg.co.za</t>
+    <t>fake237555351777407@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222224</t>
@@ -945,7 +951,7 @@
     <t>5311266534086</t>
   </si>
   <si>
-    <t>fake827514183850000@automationjdg.co.za</t>
+    <t>fake412521087024036@automationjdg.co.za</t>
   </si>
   <si>
     <t>9708027466084</t>
@@ -957,13 +963,13 @@
     <t>5311ABGF25</t>
   </si>
   <si>
-    <t>fake488984763711713@automationjdg.co.za</t>
+    <t>fake426406610818229@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
   </si>
   <si>
-    <t>fake940066830044150@automationjdg.co.za</t>
+    <t>fake935711881466164@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -975,7 +981,7 @@
     <t>Create New Customer - Validate Registration Form - validate Existing Account</t>
   </si>
   <si>
-    <t>fake585408232110480@automationjdg.co.za</t>
+    <t>fake662216448558420@automationjdg.co.za</t>
   </si>
   <si>
     <t>22</t>
@@ -984,7 +990,7 @@
     <t>Create New Customer - Validate Registration Form -Password Field</t>
   </si>
   <si>
-    <t>fake218396824073864@automationjdg.co.za</t>
+    <t>fake406771358034667@automationjdg.co.za</t>
   </si>
   <si>
     <t>23</t>
@@ -993,7 +999,7 @@
     <t>Create New Customer - Validate Registration Form - SAID Field With Less than 13 Digits</t>
   </si>
   <si>
-    <t>fake418388269301706@automationjdg.co.za</t>
+    <t>fake605942751898004@automationjdg.co.za</t>
   </si>
   <si>
     <t>24</t>
@@ -1002,7 +1008,7 @@
     <t>Create New Customer - Validate Registration Form -- SAID Field With More than 13 Digits</t>
   </si>
   <si>
-    <t>fake474057028134402@automationjdg.co.za</t>
+    <t>fake551015719973479@automationjdg.co.za</t>
   </si>
   <si>
     <t>25</t>
@@ -1011,7 +1017,7 @@
     <t>Create New Customer - Validate Registration Form - Incorrect SAID</t>
   </si>
   <si>
-    <t>fake911207664109317@automationjdg.co.za</t>
+    <t>fake562222176655286@automationjdg.co.za</t>
   </si>
   <si>
     <t>TestCaseID</t>
@@ -1388,10 +1394,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1430,10 +1436,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1444,10 +1450,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1592,13 +1598,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -1615,7 +1621,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1635,7 +1641,7 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1655,7 +1661,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1675,7 +1681,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1683,10 +1689,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1695,7 +1701,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1715,7 +1721,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1735,7 +1741,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1743,10 +1749,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1755,7 +1761,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1763,10 +1769,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1775,7 +1781,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1845,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -1865,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
@@ -1882,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
@@ -1899,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -1916,15 +1922,15 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1933,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -1947,10 +1953,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -1967,15 +1973,15 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1984,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
@@ -1998,10 +2004,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
@@ -2015,10 +2021,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
@@ -2032,10 +2038,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
@@ -2049,18 +2055,18 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2069,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15">
@@ -2130,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
@@ -2147,10 +2153,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -2164,10 +2170,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
@@ -2181,10 +2187,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
@@ -2198,10 +2204,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -2215,10 +2221,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2238,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -2249,10 +2255,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -2266,10 +2272,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -2283,10 +2289,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
@@ -2300,10 +2306,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12">
@@ -2317,10 +2323,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
@@ -2334,10 +2340,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
@@ -2351,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15">
@@ -2368,10 +2374,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
@@ -2385,10 +2391,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -2402,10 +2408,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -2419,10 +2425,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
@@ -2436,10 +2442,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -2453,10 +2459,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -2470,10 +2476,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -2487,10 +2493,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
@@ -2504,10 +2510,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
@@ -2521,10 +2527,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
@@ -2538,27 +2544,27 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
@@ -2572,10 +2578,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
@@ -2589,44 +2595,44 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
@@ -2640,10 +2646,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
@@ -2657,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
@@ -2748,10 +2754,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2771,7 +2777,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
@@ -2924,16 +2930,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -2947,10 +2953,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
         <v>92</v>
@@ -2970,10 +2976,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -2993,13 +2999,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
         <v>83</v>
@@ -3016,10 +3022,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>92</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>92</v>
@@ -3062,10 +3068,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
@@ -3085,10 +3091,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>92</v>
@@ -3108,10 +3114,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -3131,13 +3137,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
         <v>83</v>
@@ -3154,13 +3160,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
         <v>83</v>
@@ -3177,13 +3183,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
@@ -3200,10 +3206,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -3223,10 +3229,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -3246,10 +3252,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -3269,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -3292,10 +3298,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -3315,10 +3321,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
         <v>92</v>
@@ -3338,10 +3344,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
         <v>92</v>
@@ -3361,10 +3367,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
         <v>92</v>
@@ -3384,10 +3390,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -3407,10 +3413,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
@@ -3430,10 +3436,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F23" t="s">
         <v>92</v>
@@ -3453,10 +3459,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F24" t="s">
         <v>92</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F25" t="s">
         <v>92</v>
@@ -3490,19 +3496,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F26" t="s">
         <v>92</v>
@@ -3538,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -3552,10 +3558,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -3569,44 +3575,44 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3630,16 +3636,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
@@ -3650,16 +3656,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -3670,16 +3676,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3706,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
@@ -3723,10 +3729,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
@@ -3740,10 +3746,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
@@ -3757,10 +3763,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
@@ -3774,10 +3780,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -3791,10 +3797,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -3808,44 +3814,44 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
@@ -3985,19 +3991,19 @@
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -4008,19 +4014,19 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -4028,7 +4034,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -4051,22 +4057,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -4074,7 +4080,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -4731,31 +4737,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -4766,10 +4772,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4781,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -4801,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4816,7 +4822,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -4849,10 +4855,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
@@ -4863,7 +4869,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4893,31 +4899,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
@@ -4931,25 +4937,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K2" t="s">
         <v>55</v>
@@ -4969,25 +4975,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" t="s">
         <v>278</v>
       </c>
-      <c r="G3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H3" t="s">
-        <v>276</v>
-      </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
@@ -5007,25 +5013,25 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" t="s">
         <v>279</v>
-      </c>
-      <c r="G4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J4" t="s">
-        <v>277</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
@@ -5394,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5406,46 +5412,46 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
@@ -5459,37 +5465,37 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -5518,37 +5524,37 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
         <v>301</v>
       </c>
-      <c r="G3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" t="s">
-        <v>298</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>299</v>
-      </c>
       <c r="N3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O3" t="s">
         <v>50</v>
@@ -5577,37 +5583,37 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L4" t="s">
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O4" t="s">
         <v>50</v>
@@ -5636,37 +5642,37 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O5" t="s">
         <v>50</v>
@@ -5695,37 +5701,37 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
@@ -5745,46 +5751,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
         <v>310</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>308</v>
-      </c>
       <c r="K7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L7" t="s">
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O7" t="s">
         <v>49</v>
@@ -5804,46 +5810,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O8" t="s">
         <v>50</v>
@@ -5863,46 +5869,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O9" t="s">
         <v>50</v>
@@ -5922,46 +5928,46 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I10" t="s">
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O10" t="s">
         <v>50</v>
@@ -5981,46 +5987,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L11" t="s">
         <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O11" t="s">
         <v>50</v>
@@ -6053,69 +6059,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D1" t="s">
         <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -6141,22 +6147,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6204,10 +6210,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
@@ -6218,10 +6224,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
@@ -6232,10 +6238,10 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
@@ -6246,10 +6252,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
@@ -6260,10 +6266,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
@@ -6274,10 +6280,10 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
@@ -6288,10 +6294,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
@@ -6302,10 +6308,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
@@ -6316,10 +6322,10 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -6330,10 +6336,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11">
@@ -6344,10 +6350,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
@@ -6358,10 +6364,10 @@
         <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
@@ -6372,10 +6378,10 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6393,43 +6399,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -6437,19 +6443,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6478,19 +6484,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6529,43 +6535,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -6573,19 +6579,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6614,19 +6620,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6665,43 +6671,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -6709,19 +6715,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6750,19 +6756,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6801,43 +6807,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -6845,19 +6851,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6886,19 +6892,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -9949,7 +9955,7 @@
         <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
         <v>133</v>
@@ -9960,13 +9966,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>129</v>
@@ -9992,10 +9998,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -10184,10 +10190,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -10216,10 +10222,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -10270,7 +10276,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -10284,7 +10290,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -10298,7 +10304,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
@@ -10312,7 +10318,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -10326,21 +10332,21 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -10354,7 +10360,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -10368,63 +10374,63 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -10451,37 +10457,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
@@ -10495,37 +10501,37 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
       </c>
       <c r="I2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" t="s">
         <v>168</v>
       </c>
-      <c r="J2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" t="s">
-        <v>167</v>
-      </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -10539,37 +10545,37 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
       </c>
       <c r="I3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" t="s">
         <v>168</v>
       </c>
-      <c r="J3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" t="s">
-        <v>167</v>
-      </c>
       <c r="M3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -10583,37 +10589,37 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
         <v>72</v>
       </c>
       <c r="I4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" t="s">
         <v>168</v>
       </c>
-      <c r="J4" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" t="s">
-        <v>167</v>
-      </c>
       <c r="M4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -10627,81 +10633,81 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
         <v>72</v>
       </c>
       <c r="I5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" t="s">
         <v>168</v>
       </c>
-      <c r="J5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" t="s">
-        <v>167</v>
-      </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H6" t="s">
         <v>72</v>
       </c>
       <c r="I6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" t="s">
         <v>168</v>
       </c>
-      <c r="J6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" t="s">
-        <v>167</v>
-      </c>
       <c r="M6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -10715,37 +10721,37 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
       </c>
       <c r="I7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" t="s">
         <v>168</v>
       </c>
-      <c r="J7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" t="s">
-        <v>167</v>
-      </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -10759,81 +10765,81 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
       </c>
       <c r="I8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" t="s">
         <v>168</v>
       </c>
-      <c r="J8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" t="s">
-        <v>167</v>
-      </c>
       <c r="M8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" t="s">
         <v>176</v>
-      </c>
-      <c r="N8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H9" t="s">
         <v>72</v>
       </c>
       <c r="I9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" t="s">
         <v>168</v>
       </c>
-      <c r="J9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" t="s">
-        <v>167</v>
-      </c>
       <c r="M9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" t="s">
         <v>176</v>
-      </c>
-      <c r="N9" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10866,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -10898,25 +10904,25 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
@@ -10933,25 +10939,25 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
@@ -10968,33 +10974,33 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -11003,33 +11009,33 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -11038,25 +11044,25 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -11,36 +11,38 @@
     <sheet name="ICUpdateUser++" r:id="rId5" sheetId="3"/>
     <sheet name="SapCustomer++" r:id="rId6" sheetId="4"/>
     <sheet name="Suites" r:id="rId7" sheetId="5"/>
-    <sheet name="PayUPagePayment++" r:id="rId8" sheetId="6"/>
-    <sheet name="CheckoutpaymentOption++" r:id="rId9" sheetId="7"/>
-    <sheet name="deliveryPopulation++" r:id="rId10" sheetId="8"/>
-    <sheet name="icGiftCardPurchase++" r:id="rId11" sheetId="9"/>
-    <sheet name="SAP_OrderRelated++" r:id="rId12" sheetId="10"/>
-    <sheet name="GenerateOrderSAPnumber++" r:id="rId13" sheetId="11"/>
-    <sheet name="OrderStatusSearch++" r:id="rId14" sheetId="12"/>
-    <sheet name="Login_magento++" r:id="rId15" sheetId="13"/>
-    <sheet name="ic_RetriveOrderID++" r:id="rId16" sheetId="14"/>
-    <sheet name="ProductSearch++" r:id="rId17" sheetId="15"/>
-    <sheet name="icRedeemGiftCard++" r:id="rId18" sheetId="16"/>
-    <sheet name="VeriyGiftcardUsableity++" r:id="rId19" sheetId="17"/>
-    <sheet name="ic_login++" r:id="rId20" sheetId="18"/>
-    <sheet name="DB_connection_master++" r:id="rId21" sheetId="19"/>
-    <sheet name="icGiftCardVerificationSender++" r:id="rId22" sheetId="20"/>
-    <sheet name="ic_CashDepositPayment++" r:id="rId23" sheetId="21"/>
-    <sheet name="CreateaccountBackend++" r:id="rId24" sheetId="22"/>
-    <sheet name="accountCreation++" r:id="rId25" sheetId="23"/>
-    <sheet name="Russels" r:id="rId26" sheetId="24"/>
-    <sheet name="Login++" r:id="rId27" sheetId="25"/>
-    <sheet name="Bradlows" r:id="rId28" sheetId="26"/>
-    <sheet name="Rochester" r:id="rId29" sheetId="27"/>
-    <sheet name="Sleepmasters" r:id="rId30" sheetId="28"/>
-    <sheet name="HiFiCorp" r:id="rId31" sheetId="29"/>
+    <sheet name="CreditStatusVerification++" r:id="rId8" sheetId="6"/>
+    <sheet name="CreditApp_NavigateFilter++" r:id="rId9" sheetId="7"/>
+    <sheet name="PayUPagePayment++" r:id="rId10" sheetId="8"/>
+    <sheet name="CheckoutpaymentOption++" r:id="rId11" sheetId="9"/>
+    <sheet name="deliveryPopulation++" r:id="rId12" sheetId="10"/>
+    <sheet name="icGiftCardPurchase++" r:id="rId13" sheetId="11"/>
+    <sheet name="SAP_OrderRelated++" r:id="rId14" sheetId="12"/>
+    <sheet name="GenerateOrderSAPnumber++" r:id="rId15" sheetId="13"/>
+    <sheet name="OrderStatusSearch++" r:id="rId16" sheetId="14"/>
+    <sheet name="Login_magento++" r:id="rId17" sheetId="15"/>
+    <sheet name="ic_RetriveOrderID++" r:id="rId18" sheetId="16"/>
+    <sheet name="ProductSearch++" r:id="rId19" sheetId="17"/>
+    <sheet name="icRedeemGiftCard++" r:id="rId20" sheetId="18"/>
+    <sheet name="VeriyGiftcardUsableity++" r:id="rId21" sheetId="19"/>
+    <sheet name="ic_login++" r:id="rId22" sheetId="20"/>
+    <sheet name="DB_connection_master++" r:id="rId23" sheetId="21"/>
+    <sheet name="icGiftCardVerificationSender++" r:id="rId24" sheetId="22"/>
+    <sheet name="ic_CashDepositPayment++" r:id="rId25" sheetId="23"/>
+    <sheet name="CreateaccountBackend++" r:id="rId26" sheetId="24"/>
+    <sheet name="accountCreation++" r:id="rId27" sheetId="25"/>
+    <sheet name="Russels" r:id="rId28" sheetId="26"/>
+    <sheet name="Login++" r:id="rId29" sheetId="27"/>
+    <sheet name="Bradlows" r:id="rId30" sheetId="28"/>
+    <sheet name="Rochester" r:id="rId31" sheetId="29"/>
+    <sheet name="Sleepmasters" r:id="rId32" sheetId="30"/>
+    <sheet name="HiFiCorp" r:id="rId33" sheetId="31"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="362">
   <si>
     <t>TCID</t>
   </si>
@@ -402,6 +404,33 @@
     <t>HiFiCorp</t>
   </si>
   <si>
+    <t>Final_ExpectedStatus</t>
+  </si>
+  <si>
+    <t>TimeOut_Inseconds</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Credit application-verification Magento admin</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>EmailIdtoFilter</t>
+  </si>
+  <si>
+    <t>TomasCardosoLima@dayrep.com</t>
+  </si>
+  <si>
     <t>cardnumber</t>
   </si>
   <si>
@@ -621,9 +650,6 @@
     <t>OrderSAPnumber</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>orderID</t>
   </si>
   <si>
@@ -654,6 +680,15 @@
     <t>Password4</t>
   </si>
   <si>
+    <t>Credit app verification in magento admin</t>
+  </si>
+  <si>
+    <t>225564</t>
+  </si>
+  <si>
+    <t>Access#3</t>
+  </si>
+  <si>
     <t>typeSearch</t>
   </si>
   <si>
@@ -867,7 +902,7 @@
     <t>Backend_Lastname</t>
   </si>
   <si>
-    <t>fake405037554824917@automationjdg.co.za</t>
+    <t>fake049035734406195@automationjdg.co.za</t>
   </si>
   <si>
     <t>7503226018089</t>
@@ -876,10 +911,10 @@
     <t>Main Website</t>
   </si>
   <si>
-    <t>fake515576077547784@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake055933214637283@automationjdg.co.za</t>
+    <t>fake071395626216400@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake411844545414451@automationjdg.co.za</t>
   </si>
   <si>
     <t>abcd1234</t>
@@ -930,7 +965,7 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>fake883903505047606@automationjdg.co.za</t>
+    <t>fake755177078827781@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222224</t>
@@ -945,7 +980,7 @@
     <t>5311266534086</t>
   </si>
   <si>
-    <t>fake827514183850000@automationjdg.co.za</t>
+    <t>fake364481410219634@automationjdg.co.za</t>
   </si>
   <si>
     <t>9708027466084</t>
@@ -957,13 +992,13 @@
     <t>5311ABGF25</t>
   </si>
   <si>
-    <t>fake488984763711713@automationjdg.co.za</t>
+    <t>fake852927524223655@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
   </si>
   <si>
-    <t>fake940066830044150@automationjdg.co.za</t>
+    <t>fake323166882128156@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -975,7 +1010,7 @@
     <t>Create New Customer - Validate Registration Form - validate Existing Account</t>
   </si>
   <si>
-    <t>fake585408232110480@automationjdg.co.za</t>
+    <t>fake192708076449451@automationjdg.co.za</t>
   </si>
   <si>
     <t>22</t>
@@ -984,7 +1019,7 @@
     <t>Create New Customer - Validate Registration Form -Password Field</t>
   </si>
   <si>
-    <t>fake218396824073864@automationjdg.co.za</t>
+    <t>fake768003687226222@automationjdg.co.za</t>
   </si>
   <si>
     <t>23</t>
@@ -993,7 +1028,7 @@
     <t>Create New Customer - Validate Registration Form - SAID Field With Less than 13 Digits</t>
   </si>
   <si>
-    <t>fake418388269301706@automationjdg.co.za</t>
+    <t>fake615603434252567@automationjdg.co.za</t>
   </si>
   <si>
     <t>24</t>
@@ -1002,7 +1037,7 @@
     <t>Create New Customer - Validate Registration Form -- SAID Field With More than 13 Digits</t>
   </si>
   <si>
-    <t>fake474057028134402@automationjdg.co.za</t>
+    <t>fake636238357132438@automationjdg.co.za</t>
   </si>
   <si>
     <t>25</t>
@@ -1011,7 +1046,7 @@
     <t>Create New Customer - Validate Registration Form - Incorrect SAID</t>
   </si>
   <si>
-    <t>fake911207664109317@automationjdg.co.za</t>
+    <t>fake007167166122956@automationjdg.co.za</t>
   </si>
   <si>
     <t>TestCaseID</t>
@@ -1310,6 +1345,638 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" t="s">
+        <v>180</v>
+      </c>
+      <c r="N7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1332,10 +1999,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1346,10 +2013,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1360,10 +2027,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1374,10 +2041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1388,10 +2055,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1416,10 +2083,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1430,10 +2097,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1444,10 +2111,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1573,7 +2240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1592,21 +2259,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1615,7 +2282,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1623,10 +2290,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1635,7 +2302,7 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1643,10 +2310,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1655,7 +2322,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1663,10 +2330,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1675,7 +2342,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1683,10 +2350,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1695,7 +2362,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1715,7 +2382,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1723,10 +2390,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1735,7 +2402,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1743,10 +2410,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1755,7 +2422,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1763,10 +2430,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1775,7 +2442,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1826,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1845,18 +2512,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1865,15 +2532,15 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1882,15 +2549,15 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1899,15 +2566,15 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1916,15 +2583,15 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1933,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
@@ -1950,15 +2617,15 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1967,15 +2634,15 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1984,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -1998,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -2015,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
@@ -2032,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
@@ -2049,18 +2716,18 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2069,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15">
@@ -2111,9 +2778,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,10 +2797,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -2147,10 +2814,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
@@ -2164,10 +2831,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
@@ -2181,10 +2848,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
@@ -2198,10 +2865,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
@@ -2215,10 +2882,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2899,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
@@ -2249,10 +2916,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -2266,10 +2933,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10">
@@ -2283,10 +2950,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11">
@@ -2300,10 +2967,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12">
@@ -2317,10 +2984,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -2334,10 +3001,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14">
@@ -2351,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -2368,10 +3035,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
@@ -2385,10 +3052,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
@@ -2402,10 +3069,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
@@ -2419,10 +3086,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
@@ -2436,10 +3103,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
@@ -2453,10 +3120,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
@@ -2470,95 +3137,95 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
@@ -2572,61 +3239,61 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31">
@@ -2640,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
@@ -2657,10 +3324,27 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -2687,15 +3371,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2706,10 +3390,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2720,10 +3404,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2734,10 +3418,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2748,10 +3432,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2905,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2924,33 +3608,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
         <v>92</v>
@@ -2961,19 +3645,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -2984,22 +3668,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
         <v>83</v>
@@ -3007,19 +3691,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>92</v>
@@ -3030,19 +3714,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
         <v>92</v>
@@ -3062,10 +3746,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
@@ -3085,10 +3769,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
         <v>92</v>
@@ -3108,10 +3792,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -3131,13 +3815,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
         <v>83</v>
@@ -3154,13 +3838,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
         <v>83</v>
@@ -3177,13 +3861,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
@@ -3200,10 +3884,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -3223,10 +3907,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -3246,10 +3930,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -3269,10 +3953,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -3292,10 +3976,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -3315,10 +3999,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
         <v>92</v>
@@ -3338,10 +4022,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
         <v>92</v>
@@ -3361,10 +4045,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F20" t="s">
         <v>92</v>
@@ -3384,10 +4068,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -3407,10 +4091,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
@@ -3430,10 +4114,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F23" t="s">
         <v>92</v>
@@ -3453,10 +4137,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
         <v>92</v>
@@ -3467,19 +4151,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F25" t="s">
         <v>92</v>
@@ -3490,19 +4174,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
         <v>92</v>
@@ -3516,7 +4200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3538,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -3552,10 +4236,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
@@ -3569,44 +4253,44 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3614,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3630,16 +4314,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
@@ -3650,16 +4334,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
@@ -3670,429 +4354,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4717,6 +4988,419 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4731,31 +5415,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -4766,10 +5450,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4781,7 +5465,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -4801,10 +5485,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4816,7 +5500,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -4833,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4849,10 +5533,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
@@ -4863,7 +5547,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4874,7 +5558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -4893,31 +5577,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -4931,25 +5615,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K2" t="s">
         <v>55</v>
@@ -4969,25 +5653,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
@@ -5007,25 +5691,25 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
@@ -5381,7 +6065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -5394,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5406,46 +6090,46 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="L1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="N1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="O1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Q1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="R1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
@@ -5459,37 +6143,37 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -5518,37 +6202,37 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="K3" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O3" t="s">
         <v>50</v>
@@ -5577,37 +6261,37 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L4" t="s">
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N4" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="O4" t="s">
         <v>50</v>
@@ -5636,37 +6320,37 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N5" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O5" t="s">
         <v>50</v>
@@ -5695,37 +6379,37 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K6" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N6" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
@@ -5745,46 +6429,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K7" t="s">
         <v>309</v>
       </c>
-      <c r="B7" t="s">
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
         <v>310</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
-      </c>
-      <c r="G7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>299</v>
-      </c>
-      <c r="N7" t="s">
-        <v>300</v>
       </c>
       <c r="O7" t="s">
         <v>49</v>
@@ -5804,46 +6488,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K8" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N8" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O8" t="s">
         <v>50</v>
@@ -5863,46 +6547,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H9" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K9" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N9" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O9" t="s">
         <v>50</v>
@@ -5922,46 +6606,46 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>319</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" t="s">
-        <v>235</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>308</v>
-      </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N10" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O10" t="s">
         <v>50</v>
@@ -5981,46 +6665,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G11" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H11" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K11" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L11" t="s">
         <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N11" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O11" t="s">
         <v>50</v>
@@ -6043,7 +6727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -6053,69 +6737,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
         <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="I1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="K1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="L1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -6141,22 +6825,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6188,7 +6872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -6204,10 +6888,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
@@ -6218,10 +6902,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
@@ -6232,10 +6916,10 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">
@@ -6246,10 +6930,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
@@ -6260,10 +6944,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
@@ -6274,10 +6958,10 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
@@ -6288,10 +6972,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
@@ -6302,10 +6986,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9">
@@ -6316,10 +7000,10 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10">
@@ -6330,10 +7014,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
@@ -6344,10 +7028,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12">
@@ -6358,10 +7042,10 @@
         <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
@@ -6372,282 +7056,10 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6665,43 +7077,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
@@ -6709,19 +7121,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6750,19 +7162,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6801,43 +7213,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
@@ -6845,19 +7257,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6886,19 +7298,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -9165,6 +9577,278 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E22"/>
@@ -9728,6 +10412,100 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9745,54 +10523,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -9800,31 +10578,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
@@ -9832,31 +10610,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
@@ -9864,31 +10642,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
@@ -9905,22 +10683,22 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -9928,31 +10706,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
         <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
         <v>9</v>
@@ -9960,31 +10738,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
         <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
@@ -9992,31 +10770,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
@@ -10033,22 +10811,22 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
@@ -10065,22 +10843,22 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J11" t="s">
         <v>9</v>
@@ -10097,22 +10875,22 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
         <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
         <v>9</v>
@@ -10129,22 +10907,22 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
         <v>9</v>
@@ -10161,22 +10939,22 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
         <v>9</v>
@@ -10184,31 +10962,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
         <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
@@ -10216,31 +10994,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
         <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
         <v>9</v>
@@ -10251,7 +11029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -10270,77 +11048,77 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
@@ -10354,709 +11132,77 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" t="s">
         <v>160</v>
-      </c>
-      <c r="K1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" t="s">
-        <v>171</v>
-      </c>
-      <c r="N7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M8" t="s">
-        <v>176</v>
-      </c>
-      <c r="N8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" t="s">
-        <v>167</v>
-      </c>
-      <c r="M9" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="285">
   <si>
     <t>testSuitID</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>icLogoHomepage</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Verify popular search in IC</t>
+  </si>
+  <si>
+    <t>icPopularSearch</t>
   </si>
   <si>
     <t>TCID</t>
@@ -1108,16 +1117,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -1149,13 +1158,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
@@ -1166,7 +1175,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1177,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1188,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1199,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -1210,18 +1219,18 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1239,37 +1248,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -1280,28 +1289,28 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -1322,61 +1331,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="R1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="S1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
@@ -1390,52 +1399,52 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
@@ -1449,52 +1458,52 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1508,52 +1517,52 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" t="s">
         <v>188</v>
       </c>
-      <c r="K4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" t="s">
-        <v>185</v>
-      </c>
       <c r="N4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -1567,52 +1576,52 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" t="s">
         <v>189</v>
       </c>
-      <c r="K5" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" t="s">
-        <v>186</v>
-      </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -1626,52 +1635,52 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" t="s">
         <v>190</v>
       </c>
-      <c r="K6" t="s">
-        <v>184</v>
-      </c>
-      <c r="L6" t="s">
-        <v>187</v>
-      </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -1682,55 +1691,55 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1748,16 +1757,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
@@ -1768,10 +1777,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
@@ -1782,10 +1791,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -1796,10 +1805,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -1810,10 +1819,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
@@ -1824,10 +1833,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
@@ -1838,10 +1847,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -1852,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -1866,10 +1875,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -1880,10 +1889,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11">
@@ -1894,10 +1903,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1915,19 +1924,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -1938,10 +1947,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1955,10 +1964,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1972,10 +1981,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1996,16 +2005,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
@@ -2016,10 +2025,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
@@ -2030,10 +2039,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
@@ -2044,10 +2053,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -2058,10 +2067,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2079,22 +2088,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -2105,10 +2114,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2125,10 +2134,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -2145,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2165,13 +2174,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2185,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2205,10 +2214,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2225,10 +2234,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -2245,10 +2254,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -2259,16 +2268,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -2279,16 +2288,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -2299,16 +2308,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -2319,16 +2328,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -2339,16 +2348,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -2365,10 +2374,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -2379,16 +2388,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -2405,10 +2414,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -2425,10 +2434,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -2455,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -2496,25 +2505,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -2540,22 +2549,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -2597,43 +2606,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
@@ -2644,37 +2653,37 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" t="s">
         <v>254</v>
       </c>
-      <c r="J2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" t="s">
-        <v>251</v>
-      </c>
       <c r="L2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
@@ -2685,37 +2694,37 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" t="s">
         <v>254</v>
       </c>
-      <c r="J3" t="s">
-        <v>255</v>
-      </c>
-      <c r="K3" t="s">
-        <v>251</v>
-      </c>
       <c r="L3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
@@ -2726,37 +2735,37 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" t="s">
         <v>254</v>
       </c>
-      <c r="J4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K4" t="s">
-        <v>251</v>
-      </c>
       <c r="L4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
@@ -2767,78 +2776,78 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" t="s">
         <v>254</v>
       </c>
-      <c r="J5" t="s">
-        <v>255</v>
-      </c>
-      <c r="K5" t="s">
-        <v>251</v>
-      </c>
       <c r="L5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" t="s">
         <v>254</v>
       </c>
-      <c r="J6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" t="s">
-        <v>251</v>
-      </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2848,7 +2857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3476,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>71</v>
@@ -3509,6 +3518,53 @@
         <v>11</v>
       </c>
       <c r="O14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3527,16 +3583,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -3547,10 +3603,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
@@ -3561,10 +3617,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
@@ -3575,10 +3631,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3645,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6">
@@ -3603,10 +3659,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
@@ -3617,10 +3673,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
@@ -3631,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
@@ -3645,10 +3701,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -3659,10 +3715,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11">
@@ -3673,10 +3729,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
@@ -3687,10 +3743,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -3701,10 +3757,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3722,31 +3778,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
@@ -3757,22 +3813,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -3786,22 +3842,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -3815,22 +3871,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
         <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -3844,22 +3900,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -3867,28 +3923,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -3953,19 +4009,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -3994,19 +4050,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4089,19 +4145,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4130,19 +4186,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4225,19 +4281,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4266,19 +4322,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4361,19 +4417,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4402,19 +4458,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4453,30 +4509,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -4487,10 +4543,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4508,42 +4564,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -4554,16 +4610,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4581,16 +4637,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
@@ -4601,24 +4657,24 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -4629,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -4643,10 +4699,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4664,16 +4720,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -4684,24 +4740,24 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4719,22 +4775,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -4742,22 +4798,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4765,7 +4821,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -4788,22 +4844,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -4811,7 +4867,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4847,37 +4903,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
@@ -4888,10 +4944,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -4903,7 +4959,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -4917,16 +4973,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -4938,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -4965,34 +5021,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
@@ -5003,60 +5059,60 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -12,35 +12,36 @@
     <sheet name="SapCustomer++" r:id="rId6" sheetId="4"/>
     <sheet name="Suites" r:id="rId7" sheetId="5"/>
     <sheet name="PayUPagePayment++" r:id="rId8" sheetId="6"/>
-    <sheet name="CheckoutpaymentOption++" r:id="rId9" sheetId="7"/>
-    <sheet name="deliveryPopulation++" r:id="rId10" sheetId="8"/>
-    <sheet name="icGiftCardPurchase++" r:id="rId11" sheetId="9"/>
-    <sheet name="SAP_OrderRelated++" r:id="rId12" sheetId="10"/>
-    <sheet name="GenerateOrderSAPnumber++" r:id="rId13" sheetId="11"/>
-    <sheet name="OrderStatusSearch++" r:id="rId14" sheetId="12"/>
-    <sheet name="Login_magento++" r:id="rId15" sheetId="13"/>
-    <sheet name="ic_RetriveOrderID++" r:id="rId16" sheetId="14"/>
-    <sheet name="ProductSearch++" r:id="rId17" sheetId="15"/>
-    <sheet name="icRedeemGiftCard++" r:id="rId18" sheetId="16"/>
-    <sheet name="VeriyGiftcardUsableity++" r:id="rId19" sheetId="17"/>
-    <sheet name="ic_login++" r:id="rId20" sheetId="18"/>
-    <sheet name="DB_connection_master++" r:id="rId21" sheetId="19"/>
-    <sheet name="icGiftCardVerificationSender++" r:id="rId22" sheetId="20"/>
-    <sheet name="ic_CashDepositPayment++" r:id="rId23" sheetId="21"/>
-    <sheet name="CreateaccountBackend++" r:id="rId24" sheetId="22"/>
-    <sheet name="accountCreation++" r:id="rId25" sheetId="23"/>
-    <sheet name="Russels" r:id="rId26" sheetId="24"/>
-    <sheet name="Login++" r:id="rId27" sheetId="25"/>
-    <sheet name="Bradlows" r:id="rId28" sheetId="26"/>
-    <sheet name="Rochester" r:id="rId29" sheetId="27"/>
-    <sheet name="Sleepmasters" r:id="rId30" sheetId="28"/>
-    <sheet name="HiFiCorp" r:id="rId31" sheetId="29"/>
+    <sheet name="icInvalidEmail++" r:id="rId9" sheetId="7"/>
+    <sheet name="CheckoutpaymentOption++" r:id="rId10" sheetId="8"/>
+    <sheet name="deliveryPopulation++" r:id="rId11" sheetId="9"/>
+    <sheet name="icGiftCardPurchase++" r:id="rId12" sheetId="10"/>
+    <sheet name="SAP_OrderRelated++" r:id="rId13" sheetId="11"/>
+    <sheet name="GenerateOrderSAPnumber++" r:id="rId14" sheetId="12"/>
+    <sheet name="OrderStatusSearch++" r:id="rId15" sheetId="13"/>
+    <sheet name="Login_magento++" r:id="rId16" sheetId="14"/>
+    <sheet name="ic_RetriveOrderID++" r:id="rId17" sheetId="15"/>
+    <sheet name="ProductSearch++" r:id="rId18" sheetId="16"/>
+    <sheet name="icRedeemGiftCard++" r:id="rId19" sheetId="17"/>
+    <sheet name="VeriyGiftcardUsableity++" r:id="rId20" sheetId="18"/>
+    <sheet name="ic_login++" r:id="rId21" sheetId="19"/>
+    <sheet name="DB_connection_master++" r:id="rId22" sheetId="20"/>
+    <sheet name="icGiftCardVerificationSender++" r:id="rId23" sheetId="21"/>
+    <sheet name="ic_CashDepositPayment++" r:id="rId24" sheetId="22"/>
+    <sheet name="CreateaccountBackend++" r:id="rId25" sheetId="23"/>
+    <sheet name="accountCreation++" r:id="rId26" sheetId="24"/>
+    <sheet name="Russels" r:id="rId27" sheetId="25"/>
+    <sheet name="Login++" r:id="rId28" sheetId="26"/>
+    <sheet name="Bradlows" r:id="rId29" sheetId="27"/>
+    <sheet name="Rochester" r:id="rId30" sheetId="28"/>
+    <sheet name="Sleepmasters" r:id="rId31" sheetId="29"/>
+    <sheet name="HiFiCorp" r:id="rId32" sheetId="30"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="355">
   <si>
     <t>TCID</t>
   </si>
@@ -495,6 +496,15 @@
     <t>Gift Card Redeem - Registered user</t>
   </si>
   <si>
+    <t>LetterEmail</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>AlanDCoreyrhyta.com</t>
+  </si>
+  <si>
     <t>Paytype_Option</t>
   </si>
   <si>
@@ -639,9 +649,6 @@
     <t>Pending Payment</t>
   </si>
   <si>
-    <t>3100001253</t>
-  </si>
-  <si>
     <t>3100000680</t>
   </si>
   <si>
@@ -873,7 +880,7 @@
     <t>Backend_Lastname</t>
   </si>
   <si>
-    <t>fake608272263561677@automationjdg.co.za</t>
+    <t>fake412663849335371@automationjdg.co.za</t>
   </si>
   <si>
     <t>7503226018089</t>
@@ -882,10 +889,10 @@
     <t>Main Website</t>
   </si>
   <si>
-    <t>fake523543956504195@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake245240200392343@automationjdg.co.za</t>
+    <t>fake868051075740075@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake346708734661735@automationjdg.co.za</t>
   </si>
   <si>
     <t>abcd1234</t>
@@ -936,7 +943,7 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>fake237555351777407@automationjdg.co.za</t>
+    <t>fake234775323367597@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222224</t>
@@ -951,7 +958,7 @@
     <t>5311266534086</t>
   </si>
   <si>
-    <t>fake412521087024036@automationjdg.co.za</t>
+    <t>fake758727078718053@automationjdg.co.za</t>
   </si>
   <si>
     <t>9708027466084</t>
@@ -963,13 +970,13 @@
     <t>5311ABGF25</t>
   </si>
   <si>
-    <t>fake426406610818229@automationjdg.co.za</t>
+    <t>fake571162171152678@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
   </si>
   <si>
-    <t>fake935711881466164@automationjdg.co.za</t>
+    <t>fake706583622016088@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -981,7 +988,7 @@
     <t>Create New Customer - Validate Registration Form - validate Existing Account</t>
   </si>
   <si>
-    <t>fake662216448558420@automationjdg.co.za</t>
+    <t>fake948069503316110@automationjdg.co.za</t>
   </si>
   <si>
     <t>22</t>
@@ -990,7 +997,7 @@
     <t>Create New Customer - Validate Registration Form -Password Field</t>
   </si>
   <si>
-    <t>fake406771358034667@automationjdg.co.za</t>
+    <t>fake351285781311085@automationjdg.co.za</t>
   </si>
   <si>
     <t>23</t>
@@ -999,7 +1006,7 @@
     <t>Create New Customer - Validate Registration Form - SAID Field With Less than 13 Digits</t>
   </si>
   <si>
-    <t>fake605942751898004@automationjdg.co.za</t>
+    <t>fake420211587545662@automationjdg.co.za</t>
   </si>
   <si>
     <t>24</t>
@@ -1008,7 +1015,7 @@
     <t>Create New Customer - Validate Registration Form -- SAID Field With More than 13 Digits</t>
   </si>
   <si>
-    <t>fake551015719973479@automationjdg.co.za</t>
+    <t>fake836170228519407@automationjdg.co.za</t>
   </si>
   <si>
     <t>25</t>
@@ -1017,7 +1024,7 @@
     <t>Create New Customer - Validate Registration Form - Incorrect SAID</t>
   </si>
   <si>
-    <t>fake562222176655286@automationjdg.co.za</t>
+    <t>fake684348512237537@automationjdg.co.za</t>
   </si>
   <si>
     <t>TestCaseID</t>
@@ -1316,6 +1323,229 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1394,10 +1624,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1579,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1598,13 +1828,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -1621,7 +1851,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1641,7 +1871,7 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1661,7 +1891,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1681,7 +1911,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1689,10 +1919,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1701,7 +1931,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1721,7 +1951,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1741,7 +1971,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1761,7 +1991,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1781,7 +2011,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1832,7 +2062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1851,10 +2081,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -1871,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -1888,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -1905,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1922,15 +2152,15 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1939,7 +2169,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -1953,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1973,7 +2203,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1990,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -2004,10 +2234,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11">
@@ -2021,10 +2251,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
@@ -2038,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -2055,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14">
@@ -2075,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -2117,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -2136,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
@@ -2153,10 +2383,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
@@ -2170,10 +2400,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -2187,10 +2417,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -2204,10 +2434,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
@@ -2221,10 +2451,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -2238,10 +2468,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
@@ -2255,10 +2485,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -2272,10 +2502,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10">
@@ -2289,10 +2519,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -2306,10 +2536,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
@@ -2323,10 +2553,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
@@ -2340,10 +2570,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
@@ -2357,10 +2587,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
@@ -2374,10 +2604,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16">
@@ -2391,10 +2621,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
@@ -2408,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
@@ -2425,10 +2655,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
@@ -2442,10 +2672,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
@@ -2459,10 +2689,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
@@ -2476,10 +2706,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
@@ -2493,10 +2723,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2740,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
@@ -2527,10 +2757,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -2544,27 +2774,27 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
@@ -2578,10 +2808,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -2595,10 +2825,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
@@ -2612,10 +2842,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
@@ -2629,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
@@ -2646,10 +2876,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
@@ -2663,10 +2893,10 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -2693,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
@@ -2754,10 +2984,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2777,7 +3007,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2911,7 +3141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2930,16 +3160,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
@@ -2953,10 +3183,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>92</v>
@@ -2976,10 +3206,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -2999,13 +3229,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
         <v>83</v>
@@ -3022,10 +3252,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
         <v>92</v>
@@ -3036,19 +3266,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
         <v>92</v>
@@ -3068,10 +3298,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
@@ -3091,10 +3321,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
         <v>92</v>
@@ -3114,10 +3344,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -3137,13 +3367,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s">
         <v>83</v>
@@ -3160,13 +3390,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G11" t="s">
         <v>83</v>
@@ -3183,13 +3413,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
@@ -3206,10 +3436,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -3229,10 +3459,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -3252,10 +3482,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -3275,10 +3505,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -3298,10 +3528,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -3321,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
         <v>92</v>
@@ -3344,10 +3574,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" t="s">
         <v>92</v>
@@ -3367,10 +3597,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
         <v>92</v>
@@ -3390,10 +3620,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -3413,10 +3643,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
@@ -3436,10 +3666,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
         <v>92</v>
@@ -3459,10 +3689,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
         <v>92</v>
@@ -3482,10 +3712,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
         <v>92</v>
@@ -3505,10 +3735,10 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
         <v>92</v>
@@ -3522,7 +3752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3544,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -3558,10 +3788,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
@@ -3575,10 +3805,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -3592,10 +3822,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -3609,10 +3839,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3620,7 +3850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3636,16 +3866,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
@@ -3656,16 +3886,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
@@ -3676,16 +3906,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3712,10 +3942,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
@@ -3729,10 +3959,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
@@ -3746,10 +3976,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -3763,10 +3993,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -3780,10 +4010,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
@@ -3797,10 +4027,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7">
@@ -3814,10 +4044,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -3831,10 +4061,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
@@ -3848,10 +4078,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
@@ -3970,134 +4200,6 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4723,6 +4825,134 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4737,31 +4967,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -4772,10 +5002,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4787,7 +5017,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -4807,10 +5037,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4822,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -4839,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4855,10 +5085,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -4869,7 +5099,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4880,7 +5110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -4899,31 +5129,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -4937,25 +5167,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
         <v>55</v>
@@ -4975,25 +5205,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" t="s">
         <v>280</v>
       </c>
-      <c r="G3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" t="s">
-        <v>278</v>
-      </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
@@ -5013,25 +5243,25 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" t="s">
         <v>281</v>
-      </c>
-      <c r="G4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>282</v>
-      </c>
-      <c r="J4" t="s">
-        <v>279</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
@@ -5387,7 +5617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -5400,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5412,46 +5642,46 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -5465,37 +5695,37 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -5524,37 +5754,37 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
         <v>303</v>
       </c>
-      <c r="G3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K3" t="s">
-        <v>300</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>301</v>
-      </c>
       <c r="N3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O3" t="s">
         <v>50</v>
@@ -5583,37 +5813,37 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L4" t="s">
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O4" t="s">
         <v>50</v>
@@ -5642,37 +5872,37 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O5" t="s">
         <v>50</v>
@@ -5701,37 +5931,37 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
@@ -5751,46 +5981,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
         <v>312</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>310</v>
-      </c>
       <c r="K7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L7" t="s">
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O7" t="s">
         <v>49</v>
@@ -5810,46 +6040,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O8" t="s">
         <v>50</v>
@@ -5869,46 +6099,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O9" t="s">
         <v>50</v>
@@ -5928,46 +6158,46 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O10" t="s">
         <v>50</v>
@@ -5987,46 +6217,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L11" t="s">
         <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O11" t="s">
         <v>50</v>
@@ -6049,7 +6279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -6059,69 +6289,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D1" t="s">
         <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -6147,22 +6377,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6194,7 +6424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -6210,10 +6440,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
@@ -6224,10 +6454,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -6238,10 +6468,10 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
@@ -6252,10 +6482,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -6266,10 +6496,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -6280,10 +6510,10 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
@@ -6294,10 +6524,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
@@ -6308,10 +6538,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
@@ -6322,10 +6552,10 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
@@ -6336,10 +6566,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11">
@@ -6350,10 +6580,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -6364,10 +6594,10 @@
         <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13">
@@ -6378,146 +6608,10 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6535,43 +6629,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -6579,19 +6673,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6620,19 +6714,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6671,43 +6765,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -6715,19 +6809,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6756,19 +6850,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -6807,43 +6901,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -6851,19 +6945,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -6892,19 +6986,19 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -9171,6 +9265,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E22"/>
@@ -10259,6 +10489,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10276,7 +10541,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -10290,7 +10555,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -10304,7 +10569,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -10318,7 +10583,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
@@ -10332,21 +10597,21 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -10360,7 +10625,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -10374,7 +10639,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -10388,7 +10653,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -10402,7 +10667,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -10416,7 +10681,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -10430,7 +10695,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -10438,7 +10703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -10457,37 +10722,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -10501,37 +10766,37 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" t="s">
         <v>171</v>
       </c>
-      <c r="L2" t="s">
-        <v>168</v>
-      </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -10545,37 +10810,37 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" t="s">
         <v>171</v>
       </c>
-      <c r="L3" t="s">
-        <v>168</v>
-      </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4">
@@ -10589,37 +10854,37 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
         <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" t="s">
         <v>171</v>
       </c>
-      <c r="L4" t="s">
-        <v>168</v>
-      </c>
       <c r="M4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
@@ -10633,81 +10898,81 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
         <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" t="s">
         <v>171</v>
       </c>
-      <c r="L5" t="s">
-        <v>168</v>
-      </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" t="s">
         <v>171</v>
       </c>
-      <c r="L6" t="s">
-        <v>168</v>
-      </c>
       <c r="M6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
@@ -10721,37 +10986,37 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" t="s">
         <v>171</v>
       </c>
-      <c r="L7" t="s">
-        <v>168</v>
-      </c>
       <c r="M7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
@@ -10765,37 +11030,37 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" t="s">
         <v>171</v>
       </c>
-      <c r="L8" t="s">
-        <v>168</v>
-      </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -10809,260 +11074,37 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" t="s">
         <v>171</v>
       </c>
-      <c r="L9" t="s">
-        <v>168</v>
-      </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" t="s">
         <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" t="s">
-        <v>177</v>
-      </c>
-      <c r="K5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="309">
   <si>
     <t>testSuitID</t>
   </si>
@@ -288,6 +288,18 @@
     <t>IC_ProductsSortBy</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Sort Products By Price High To Low</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Sort Products By Price Low To High</t>
+  </si>
+  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -304,6 +316,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Price-High To Low</t>
+  </si>
+  <si>
+    <t>Price-Low To High</t>
   </si>
   <si>
     <t>giftCardCode</t>
@@ -1172,34 +1190,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -1210,60 +1228,60 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1281,16 +1299,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -1322,13 +1340,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -1339,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
@@ -1350,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -1361,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
@@ -1372,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
@@ -1383,18 +1401,18 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1434,37 +1452,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -1475,28 +1493,28 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
-      </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -1517,61 +1535,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="R1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
@@ -1585,52 +1603,52 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
@@ -1644,52 +1662,52 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="R3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="S3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -1703,52 +1721,52 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="R4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="S4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
@@ -1762,52 +1780,52 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" t="s">
         <v>170</v>
       </c>
-      <c r="G5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" t="s">
-        <v>164</v>
-      </c>
       <c r="N5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="R5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="S5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -1821,52 +1839,52 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" t="s">
         <v>170</v>
       </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" t="s">
-        <v>196</v>
-      </c>
-      <c r="M6" t="s">
-        <v>164</v>
-      </c>
       <c r="N6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="R6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="S6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -1877,55 +1895,55 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" t="s">
         <v>200</v>
       </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>201</v>
       </c>
-      <c r="K7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M7" t="s">
-        <v>194</v>
-      </c>
-      <c r="N7" t="s">
-        <v>195</v>
-      </c>
       <c r="O7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="R7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1943,16 +1961,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -1963,10 +1981,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
@@ -1977,10 +1995,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4">
@@ -1991,10 +2009,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
@@ -2005,10 +2023,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -2019,10 +2037,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7">
@@ -2033,10 +2051,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8">
@@ -2047,10 +2065,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9">
@@ -2061,10 +2079,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10">
@@ -2075,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11">
@@ -2089,10 +2107,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2110,19 +2128,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
@@ -2133,10 +2151,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -2150,10 +2168,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -2167,10 +2185,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -2191,16 +2209,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2">
@@ -2211,10 +2229,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -2225,10 +2243,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4">
@@ -2239,10 +2257,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5">
@@ -2253,10 +2271,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2274,25 +2292,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
@@ -2303,16 +2321,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -2326,16 +2344,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -2349,16 +2367,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -2372,16 +2390,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" t="s">
         <v>224</v>
-      </c>
-      <c r="F5" t="s">
-        <v>218</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -2395,16 +2413,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -2418,16 +2436,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -2441,16 +2459,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -2464,16 +2482,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -2481,22 +2499,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -2504,22 +2522,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -2527,22 +2545,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -2550,22 +2568,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -2573,22 +2591,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -2602,16 +2620,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -2619,22 +2637,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -2648,16 +2666,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -2671,16 +2689,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -2694,16 +2712,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -2727,7 +2745,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -2768,25 +2786,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -2812,22 +2830,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -2861,7 +2879,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3583,7 +3601,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -3616,6 +3634,100 @@
         <v>11</v>
       </c>
       <c r="O16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3634,43 +3746,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -3681,37 +3793,37 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -3722,37 +3834,37 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -3763,37 +3875,37 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
@@ -3804,78 +3916,78 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7">
@@ -3886,37 +3998,37 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J7" t="s">
         <v>274</v>
       </c>
-      <c r="D7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J7" t="s">
-        <v>268</v>
-      </c>
       <c r="K7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8">
@@ -3927,37 +4039,37 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" t="s">
         <v>279</v>
-      </c>
-      <c r="E8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J8" t="s">
-        <v>268</v>
-      </c>
-      <c r="K8" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" t="s">
-        <v>281</v>
-      </c>
-      <c r="M8" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3975,16 +4087,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
@@ -3995,10 +4107,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
@@ -4009,10 +4121,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
@@ -4023,10 +4135,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -4037,10 +4149,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -4051,10 +4163,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
@@ -4065,10 +4177,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
@@ -4079,10 +4191,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -4093,10 +4205,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -4107,10 +4219,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -4121,10 +4233,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -4135,10 +4247,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
@@ -4149,10 +4261,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4170,31 +4282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -4205,22 +4317,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -4234,22 +4346,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -4263,22 +4375,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
         <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -4292,22 +4404,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -4315,28 +4427,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -4350,22 +4462,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -4379,22 +4491,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
         <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -4459,19 +4571,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4500,19 +4612,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4595,19 +4707,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4636,19 +4748,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4731,19 +4843,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4772,19 +4884,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4867,19 +4979,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4908,19 +5020,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4951,7 +5063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4959,16 +5071,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -4979,10 +5091,38 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5000,30 +5140,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -5034,10 +5174,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5055,42 +5195,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -5101,16 +5241,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5128,16 +5268,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -5148,24 +5288,24 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -5176,10 +5316,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -5190,10 +5330,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -5204,10 +5344,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -5218,10 +5358,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5239,16 +5379,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -5259,24 +5399,24 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5294,22 +5434,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -5317,22 +5457,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -5340,7 +5480,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5363,22 +5503,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -5386,7 +5526,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5422,37 +5562,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -5463,10 +5603,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -5478,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -5492,16 +5632,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -5513,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="487">
   <si>
     <t>TCID</t>
   </si>
@@ -1024,6 +1024,15 @@
     <t>specificProduct</t>
   </si>
   <si>
+    <t>CartAdditionMethod</t>
+  </si>
+  <si>
+    <t>TypeOfOperation</t>
+  </si>
+  <si>
+    <t>validationRequired</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -1036,6 +1045,15 @@
     <t>HP 15 i3 Notebook</t>
   </si>
   <si>
+    <t>ProductListingPage</t>
+  </si>
+  <si>
+    <t>Add_To_Cart</t>
+  </si>
+  <si>
+    <t>Yes_Wishlist</t>
+  </si>
+  <si>
     <t>Computers Notebooks &amp; Tablet's</t>
   </si>
   <si>
@@ -1069,6 +1087,39 @@
     <t>3#1#2</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Clear wishlist</t>
+  </si>
+  <si>
+    <t>Samsung Toner D105L</t>
+  </si>
+  <si>
+    <t>ProductDetailPage</t>
+  </si>
+  <si>
+    <t>Add_To_Wishlist</t>
+  </si>
+  <si>
+    <t>No_wishlist</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Add multiple quantity of the same type and verify cart</t>
+  </si>
+  <si>
+    <t>Volkano Phonic Bluetooth Headphones Black VK-2002BK</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Search Product and validate cart icon</t>
+  </si>
+  <si>
     <t>scratchCode</t>
   </si>
   <si>
@@ -1351,9 +1402,6 @@
     <t>fake252588880266183@automationjdg.co.za</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Create New Customer - Validate Registration Form -Password Field</t>
   </si>
   <si>
@@ -1367,9 +1415,6 @@
   </si>
   <si>
     <t>fake007796952486726@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>Create New Customer - Validate Registration Form -- SAID Field With More than 13 Digits</t>
@@ -8908,7 +8953,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8936,6 +8981,15 @@
       <c r="G1" t="s">
         <v>325</v>
       </c>
+      <c r="H1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -8948,15 +9002,24 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8971,15 +9034,24 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8994,15 +9066,24 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" t="s">
         <v>331</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>332</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9017,15 +9098,24 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9040,15 +9130,24 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9063,15 +9162,24 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" t="s">
         <v>333</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>62</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9086,15 +9194,24 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9109,15 +9226,24 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9135,12 +9261,21 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9155,15 +9290,24 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" t="s">
         <v>331</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>332</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" t="s">
+        <v>338</v>
+      </c>
+      <c r="J11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9178,15 +9322,24 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G12" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" t="s">
+        <v>344</v>
+      </c>
+      <c r="J12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9201,15 +9354,24 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G13" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" t="s">
         <v>62</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9224,15 +9386,24 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" t="s">
         <v>62</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9247,15 +9418,24 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" t="s">
+        <v>332</v>
+      </c>
+      <c r="H15" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9270,15 +9450,24 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9293,15 +9482,24 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E17" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F17" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" t="s">
         <v>62</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9316,15 +9514,24 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F18" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" t="s">
         <v>62</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9339,15 +9546,24 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" t="s">
+        <v>332</v>
+      </c>
+      <c r="H19" t="s">
+        <v>333</v>
+      </c>
+      <c r="I19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9362,15 +9578,24 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9385,15 +9610,24 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G21" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" t="s">
         <v>62</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9408,15 +9642,24 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" t="s">
         <v>62</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9431,15 +9674,24 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E23" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H23" t="s">
+        <v>333</v>
+      </c>
+      <c r="I23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9454,15 +9706,24 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E24" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G24" t="s">
+        <v>332</v>
+      </c>
+      <c r="H24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I24" t="s">
         <v>62</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9477,15 +9738,24 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9500,15 +9770,24 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="G26" t="s">
+        <v>332</v>
+      </c>
+      <c r="H26" t="s">
+        <v>333</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9523,15 +9802,24 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E27" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="G27" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9546,15 +9834,24 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="G28" t="s">
+        <v>332</v>
+      </c>
+      <c r="H28" t="s">
+        <v>333</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9569,15 +9866,24 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E29" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="G29" t="s">
+        <v>332</v>
+      </c>
+      <c r="H29" t="s">
+        <v>333</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9592,15 +9898,120 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" t="s">
+        <v>331</v>
+      </c>
+      <c r="G30" t="s">
+        <v>332</v>
+      </c>
+      <c r="H30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>329</v>
       </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E31" t="s">
+        <v>347</v>
+      </c>
+      <c r="F31" t="s">
+        <v>348</v>
+      </c>
+      <c r="G31" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" t="s">
+        <v>350</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>329</v>
+      </c>
+      <c r="E32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F32" t="s">
+        <v>348</v>
+      </c>
+      <c r="G32" t="s">
+        <v>332</v>
+      </c>
+      <c r="H32" t="s">
+        <v>350</v>
+      </c>
+      <c r="I32" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" t="s">
+        <v>353</v>
+      </c>
+      <c r="F33" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" t="s">
+        <v>332</v>
+      </c>
+      <c r="H33" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9631,7 +10042,7 @@
         <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
@@ -9645,10 +10056,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
@@ -9662,10 +10073,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
@@ -9679,10 +10090,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
@@ -9696,10 +10107,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -9723,16 +10134,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="F1" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
@@ -9743,16 +10154,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
@@ -9763,16 +10174,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -9816,10 +10227,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
@@ -9836,7 +10247,7 @@
         <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4">
@@ -9853,7 +10264,7 @@
         <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
@@ -9870,7 +10281,7 @@
         <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6">
@@ -9884,10 +10295,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
@@ -9901,10 +10312,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8">
@@ -9918,10 +10329,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9">
@@ -9935,10 +10346,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
@@ -9946,7 +10357,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -9955,7 +10366,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11">
@@ -9963,7 +10374,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -9972,7 +10383,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12">
@@ -9989,7 +10400,7 @@
         <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
@@ -10006,7 +10417,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
@@ -10023,7 +10434,7 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15">
@@ -10037,10 +10448,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E15" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16">
@@ -10078,13 +10489,13 @@
         <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>314</v>
@@ -10101,19 +10512,19 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="E2" t="s">
         <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -10121,7 +10532,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -10144,22 +10555,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -10167,7 +10578,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -10244,31 +10655,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="G1" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="I1" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="J1" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K1" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
@@ -10282,7 +10693,7 @@
         <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -10294,7 +10705,7 @@
         <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
@@ -10317,7 +10728,7 @@
         <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -10329,7 +10740,7 @@
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
@@ -10362,10 +10773,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -10376,7 +10787,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -10406,31 +10817,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E1" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F1" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G1" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H1" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="I1" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="J1" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K1" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L1" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
@@ -10444,25 +10855,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="G2" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="H2" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -10482,25 +10893,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F3" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="H3" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -10520,25 +10931,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="J4" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -10907,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10919,46 +11330,46 @@
         <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="G1" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H1" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I1" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="J1" t="s">
         <v>273</v>
       </c>
       <c r="K1" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="L1" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="M1" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="N1" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="O1" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="P1" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="Q1" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="R1" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="S1" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
@@ -10972,37 +11383,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L2" t="s">
         <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N2" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O2" t="s">
         <v>41</v>
@@ -11031,37 +11442,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E3" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F3" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L3" t="s">
         <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N3" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="O3" t="s">
         <v>54</v>
@@ -11090,37 +11501,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F4" t="s">
         <v>286</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K4" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="N4" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -11149,37 +11560,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F5" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="G5" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H5" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K5" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L5" t="s">
         <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N5" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O5" t="s">
         <v>54</v>
@@ -11208,37 +11619,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F6" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H6" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L6" t="s">
         <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N6" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -11258,46 +11669,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="G7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L7" t="s">
         <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O7" t="s">
         <v>41</v>
@@ -11317,46 +11728,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E8" t="s">
         <v>433</v>
       </c>
-      <c r="B8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" t="s">
-        <v>416</v>
-      </c>
       <c r="F8" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G8" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H8" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K8" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L8" t="s">
         <v>54</v>
       </c>
       <c r="M8" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N8" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O8" t="s">
         <v>54</v>
@@ -11376,46 +11787,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" t="s">
+        <v>369</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>446</v>
+      </c>
+      <c r="K9" t="s">
         <v>436</v>
       </c>
-      <c r="B9" t="s">
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
         <v>437</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>415</v>
-      </c>
-      <c r="E9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="N9" t="s">
         <v>438</v>
-      </c>
-      <c r="G9" t="s">
-        <v>352</v>
-      </c>
-      <c r="H9" t="s">
-        <v>352</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>429</v>
-      </c>
-      <c r="K9" t="s">
-        <v>419</v>
-      </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" t="s">
-        <v>420</v>
-      </c>
-      <c r="N9" t="s">
-        <v>421</v>
       </c>
       <c r="O9" t="s">
         <v>54</v>
@@ -11435,46 +11846,46 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E10" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="G10" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H10" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L10" t="s">
         <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N10" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O10" t="s">
         <v>54</v>
@@ -11494,46 +11905,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="G11" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H11" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I11" t="s">
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K11" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L11" t="s">
         <v>54</v>
       </c>
       <c r="M11" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N11" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O11" t="s">
         <v>54</v>
@@ -11566,69 +11977,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D1" t="s">
         <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="F1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="G1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="I1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="J1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="K1" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="L1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="M1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="N1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D2" t="s">
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G2" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -11654,22 +12065,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -11717,10 +12128,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
@@ -11731,10 +12142,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3">
@@ -11745,10 +12156,10 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4">
@@ -11759,10 +12170,10 @@
         <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5">
@@ -11773,10 +12184,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6">
@@ -11787,10 +12198,10 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
@@ -11801,10 +12212,10 @@
         <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
@@ -11815,10 +12226,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
@@ -11829,10 +12240,10 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D9" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10">
@@ -11843,10 +12254,10 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11">
@@ -11857,10 +12268,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D11" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12">
@@ -11871,10 +12282,10 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -11885,10 +12296,10 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D13" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -11906,43 +12317,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
         <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="L1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
@@ -11950,19 +12361,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -11991,19 +12402,19 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -12042,43 +12453,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
         <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="L1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
@@ -12086,19 +12497,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -12127,19 +12538,19 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -12178,43 +12589,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
         <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="L1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
@@ -12222,19 +12633,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -12263,19 +12674,19 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -12314,43 +12725,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
         <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="L1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
@@ -12358,19 +12769,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -12399,19 +12810,19 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="488">
   <si>
     <t>TCID</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>Search Product and validate cart icon</t>
+  </si>
+  <si>
+    <t>Add Quantity to item in cart</t>
   </si>
   <si>
     <t>scratchCode</t>
@@ -8953,7 +8956,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10012,6 +10015,38 @@
         <v>5</v>
       </c>
       <c r="J33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" t="s">
+        <v>354</v>
+      </c>
+      <c r="F34" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" t="s">
+        <v>352</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10042,7 +10077,7 @@
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2">
@@ -10056,10 +10091,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3">
@@ -10073,10 +10108,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
@@ -10090,10 +10125,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
@@ -10107,10 +10142,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -10134,16 +10169,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2">
@@ -10154,16 +10189,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
@@ -10174,16 +10209,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -10227,10 +10262,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
@@ -10247,7 +10282,7 @@
         <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
@@ -10264,7 +10299,7 @@
         <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
@@ -10281,7 +10316,7 @@
         <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
@@ -10295,10 +10330,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7">
@@ -10312,10 +10347,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
@@ -10329,10 +10364,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9">
@@ -10346,10 +10381,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
@@ -10357,7 +10392,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -10366,7 +10401,7 @@
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11">
@@ -10374,7 +10409,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -10383,7 +10418,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12">
@@ -10400,7 +10435,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13">
@@ -10417,7 +10452,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14">
@@ -10434,7 +10469,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
@@ -10448,10 +10483,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16">
@@ -10489,13 +10524,13 @@
         <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E1" t="s">
         <v>316</v>
@@ -10512,19 +10547,19 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
         <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -10532,7 +10567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -10555,22 +10590,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -10578,7 +10613,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -10677,31 +10712,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2">
@@ -10715,7 +10750,7 @@
         <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -10727,7 +10762,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -10750,7 +10785,7 @@
         <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -10762,7 +10797,7 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
@@ -10795,10 +10830,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
@@ -10809,7 +10844,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -10839,31 +10874,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
@@ -10877,25 +10912,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -10915,25 +10950,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
         <v>416</v>
-      </c>
-      <c r="G3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>415</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -10953,25 +10988,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H4" t="s">
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -11340,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11352,46 +11387,46 @@
         <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J1" t="s">
         <v>275</v>
       </c>
       <c r="K1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="S1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
@@ -11405,37 +11440,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L2" t="s">
         <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -11464,37 +11499,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L3" t="s">
         <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O3" t="s">
         <v>56</v>
@@ -11523,37 +11558,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F4" t="s">
         <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I4" t="s">
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L4" t="s">
         <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O4" t="s">
         <v>56</v>
@@ -11582,37 +11617,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I5" t="s">
         <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -11641,37 +11676,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L6" t="s">
         <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O6" t="s">
         <v>56</v>
@@ -11691,46 +11726,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
         <v>447</v>
       </c>
-      <c r="B7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H7" t="s">
-        <v>369</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>446</v>
-      </c>
       <c r="K7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L7" t="s">
         <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -11753,43 +11788,43 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -11809,46 +11844,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O9" t="s">
         <v>56</v>
@@ -11871,43 +11906,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I10" t="s">
         <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L10" t="s">
         <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O10" t="s">
         <v>56</v>
@@ -11927,46 +11962,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L11" t="s">
         <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O11" t="s">
         <v>56</v>
@@ -11999,69 +12034,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D1" t="s">
         <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" t="s">
         <v>476</v>
-      </c>
-      <c r="G2" t="s">
-        <v>475</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
@@ -12087,22 +12122,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12150,10 +12185,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
@@ -12164,10 +12199,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3">
@@ -12178,10 +12213,10 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4">
@@ -12192,10 +12227,10 @@
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
@@ -12206,10 +12241,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6">
@@ -12220,10 +12255,10 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7">
@@ -12234,10 +12269,10 @@
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8">
@@ -12248,10 +12283,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9">
@@ -12262,10 +12297,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10">
@@ -12276,10 +12311,10 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11">
@@ -12290,10 +12325,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12">
@@ -12304,10 +12339,10 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
@@ -12318,10 +12353,10 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -12339,43 +12374,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
@@ -12383,19 +12418,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12424,19 +12459,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12475,43 +12510,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
@@ -12519,19 +12554,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12560,19 +12595,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12611,43 +12646,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
@@ -12655,19 +12690,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12696,19 +12731,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12747,43 +12782,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
@@ -12791,19 +12826,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12832,19 +12867,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="491">
   <si>
     <t>TCID</t>
   </si>
@@ -1120,7 +1120,16 @@
     <t>Search Product and validate cart icon</t>
   </si>
   <si>
-    <t>Add Quantity to item in cart</t>
+    <t>Add Quantity to item in cart adding 1 article</t>
+  </si>
+  <si>
+    <t>Remove one quantity from cart adding 3 articles</t>
+  </si>
+  <si>
+    <t>Bluetooth Music Receiver#JBL Earphones T110 Blue#Basic Monitor Riser</t>
+  </si>
+  <si>
+    <t>1#1#1</t>
   </si>
   <si>
     <t>scratchCode</t>
@@ -8956,7 +8965,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10047,6 +10056,38 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>334</v>
+      </c>
+      <c r="H35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I35" t="s">
+        <v>359</v>
+      </c>
+      <c r="J35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10077,7 +10118,7 @@
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -10091,10 +10132,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
@@ -10108,10 +10149,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
@@ -10125,10 +10166,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
@@ -10142,10 +10183,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -10169,16 +10210,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
@@ -10189,16 +10230,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
@@ -10209,16 +10250,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -10262,10 +10303,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3">
@@ -10282,7 +10323,7 @@
         <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
@@ -10299,7 +10340,7 @@
         <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
@@ -10316,7 +10357,7 @@
         <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6">
@@ -10330,10 +10371,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7">
@@ -10347,10 +10388,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8">
@@ -10364,10 +10405,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9">
@@ -10381,10 +10422,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10">
@@ -10392,7 +10433,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -10401,7 +10442,7 @@
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11">
@@ -10409,7 +10450,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -10418,7 +10459,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
@@ -10435,7 +10476,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
@@ -10452,7 +10493,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
@@ -10469,7 +10510,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
@@ -10483,10 +10524,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E15" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16">
@@ -10524,13 +10565,13 @@
         <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E1" t="s">
         <v>316</v>
@@ -10547,19 +10588,19 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
         <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -10567,7 +10608,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -10590,22 +10631,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -10613,7 +10654,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -10712,31 +10753,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -10750,7 +10791,7 @@
         <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -10762,7 +10803,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -10785,7 +10826,7 @@
         <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -10797,7 +10838,7 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
@@ -10830,10 +10871,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
@@ -10844,7 +10885,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -10874,31 +10915,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
@@ -10912,25 +10953,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -10950,25 +10991,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -10988,25 +11029,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H4" t="s">
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>422</v>
+      </c>
+      <c r="J4" t="s">
         <v>419</v>
-      </c>
-      <c r="J4" t="s">
-        <v>416</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -11375,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11387,46 +11428,46 @@
         <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J1" t="s">
         <v>275</v>
       </c>
       <c r="K1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="R1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="S1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
@@ -11440,37 +11481,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L2" t="s">
         <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -11499,37 +11540,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K3" t="s">
         <v>440</v>
       </c>
-      <c r="G3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H3" t="s">
-        <v>370</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K3" t="s">
-        <v>437</v>
-      </c>
       <c r="L3" t="s">
         <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="O3" t="s">
         <v>56</v>
@@ -11558,37 +11599,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F4" t="s">
         <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I4" t="s">
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L4" t="s">
         <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O4" t="s">
         <v>56</v>
@@ -11617,37 +11658,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I5" t="s">
         <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -11676,37 +11717,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L6" t="s">
         <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O6" t="s">
         <v>56</v>
@@ -11726,46 +11767,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
         <v>450</v>
       </c>
-      <c r="G7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>447</v>
-      </c>
       <c r="K7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L7" t="s">
         <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -11788,43 +11829,43 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -11844,46 +11885,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O9" t="s">
         <v>56</v>
@@ -11906,43 +11947,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I10" t="s">
         <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L10" t="s">
         <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O10" t="s">
         <v>56</v>
@@ -11962,46 +12003,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G11" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H11" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L11" t="s">
         <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O11" t="s">
         <v>56</v>
@@ -12034,69 +12075,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D1" t="s">
         <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
@@ -12122,22 +12163,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12185,10 +12226,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
@@ -12199,10 +12240,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3">
@@ -12213,10 +12254,10 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4">
@@ -12227,10 +12268,10 @@
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D4" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5">
@@ -12241,10 +12282,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
@@ -12255,10 +12296,10 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7">
@@ -12269,10 +12310,10 @@
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8">
@@ -12283,10 +12324,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9">
@@ -12297,10 +12338,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10">
@@ -12311,10 +12352,10 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11">
@@ -12325,10 +12366,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12">
@@ -12339,10 +12380,10 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13">
@@ -12353,10 +12394,10 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D13" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -12374,43 +12415,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -12418,19 +12459,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12459,19 +12500,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12510,43 +12551,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -12554,19 +12595,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12595,19 +12636,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12646,43 +12687,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -12690,19 +12731,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12731,19 +12772,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12782,43 +12823,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -12826,19 +12867,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12867,19 +12908,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="493">
   <si>
     <t>TCID</t>
   </si>
@@ -1130,6 +1130,12 @@
   </si>
   <si>
     <t>1#1#1</t>
+  </si>
+  <si>
+    <t>Add products to cart and clear cart</t>
+  </si>
+  <si>
+    <t>1#1#2</t>
   </si>
   <si>
     <t>scratchCode</t>
@@ -8965,7 +8971,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10089,6 +10095,38 @@
       </c>
       <c r="J35" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" t="s">
+        <v>361</v>
+      </c>
+      <c r="J36" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -10118,7 +10156,7 @@
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
@@ -10132,10 +10170,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
@@ -10149,10 +10187,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -10166,10 +10204,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
@@ -10183,10 +10221,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -10210,16 +10248,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
@@ -10230,16 +10268,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3">
@@ -10250,16 +10288,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -10303,10 +10341,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
@@ -10323,7 +10361,7 @@
         <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
@@ -10340,7 +10378,7 @@
         <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
@@ -10357,7 +10395,7 @@
         <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6">
@@ -10371,10 +10409,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7">
@@ -10388,10 +10426,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
@@ -10405,10 +10443,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
@@ -10422,10 +10460,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10">
@@ -10433,7 +10471,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -10442,7 +10480,7 @@
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11">
@@ -10450,7 +10488,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -10459,7 +10497,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12">
@@ -10476,7 +10514,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13">
@@ -10493,7 +10531,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
@@ -10510,7 +10548,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15">
@@ -10524,10 +10562,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16">
@@ -10565,13 +10603,13 @@
         <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E1" t="s">
         <v>316</v>
@@ -10588,19 +10626,19 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
         <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -10608,7 +10646,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -10631,22 +10669,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -10654,7 +10692,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -10682,7 +10720,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10729,6 +10767,17 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10753,31 +10802,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
@@ -10791,7 +10840,7 @@
         <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -10803,7 +10852,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -10826,7 +10875,7 @@
         <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -10838,7 +10887,7 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
@@ -10871,10 +10920,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2">
@@ -10885,7 +10934,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -10915,31 +10964,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
@@ -10953,25 +11002,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -10991,25 +11040,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" t="s">
         <v>420</v>
       </c>
-      <c r="G3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H3" t="s">
-        <v>418</v>
-      </c>
       <c r="I3" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -11029,25 +11078,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J4" t="s">
         <v>421</v>
-      </c>
-      <c r="G4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>422</v>
-      </c>
-      <c r="J4" t="s">
-        <v>419</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -11416,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11428,46 +11477,46 @@
         <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J1" t="s">
         <v>275</v>
       </c>
       <c r="K1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="R1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="S1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2">
@@ -11481,37 +11530,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L2" t="s">
         <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -11540,37 +11589,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>441</v>
+      </c>
+      <c r="K3" t="s">
+        <v>442</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
         <v>443</v>
       </c>
-      <c r="G3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>439</v>
-      </c>
-      <c r="K3" t="s">
-        <v>440</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>441</v>
-      </c>
       <c r="N3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O3" t="s">
         <v>56</v>
@@ -11599,37 +11648,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F4" t="s">
         <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I4" t="s">
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L4" t="s">
         <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O4" t="s">
         <v>56</v>
@@ -11658,37 +11707,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I5" t="s">
         <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -11717,37 +11766,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L6" t="s">
         <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O6" t="s">
         <v>56</v>
@@ -11767,46 +11816,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
         <v>452</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>436</v>
-      </c>
-      <c r="E7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H7" t="s">
-        <v>373</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>450</v>
-      </c>
       <c r="K7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L7" t="s">
         <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -11829,43 +11878,43 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -11885,46 +11934,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O9" t="s">
         <v>56</v>
@@ -11947,43 +11996,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I10" t="s">
         <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L10" t="s">
         <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O10" t="s">
         <v>56</v>
@@ -12003,46 +12052,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L11" t="s">
         <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O11" t="s">
         <v>56</v>
@@ -12075,69 +12124,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D1" t="s">
         <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
@@ -12163,22 +12212,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12226,10 +12275,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
@@ -12240,10 +12289,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3">
@@ -12254,10 +12303,10 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4">
@@ -12268,10 +12317,10 @@
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5">
@@ -12282,10 +12331,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6">
@@ -12296,10 +12345,10 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7">
@@ -12310,10 +12359,10 @@
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8">
@@ -12324,10 +12373,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9">
@@ -12338,10 +12387,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10">
@@ -12352,10 +12401,10 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11">
@@ -12366,10 +12415,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12">
@@ -12380,10 +12429,10 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13">
@@ -12394,10 +12443,10 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -12415,43 +12464,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
@@ -12459,19 +12508,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12500,19 +12549,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12551,43 +12600,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
@@ -12595,19 +12644,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12636,19 +12685,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12687,43 +12736,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
@@ -12731,19 +12780,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12772,19 +12821,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12823,43 +12872,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
@@ -12867,19 +12916,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12908,19 +12957,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="494">
   <si>
     <t>TCID</t>
   </si>
@@ -1136,6 +1136,9 @@
   </si>
   <si>
     <t>1#1#2</t>
+  </si>
+  <si>
+    <t>JBL Earphones T110 Blue</t>
   </si>
   <si>
     <t>scratchCode</t>
@@ -8971,7 +8974,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10127,6 +10130,38 @@
       </c>
       <c r="J36" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>362</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" t="s">
+        <v>352</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -10156,7 +10191,7 @@
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
@@ -10170,10 +10205,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
@@ -10187,10 +10222,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
@@ -10204,10 +10239,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
@@ -10221,10 +10256,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -10248,16 +10283,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
@@ -10268,16 +10303,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
@@ -10288,16 +10323,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -10341,10 +10376,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
@@ -10361,7 +10396,7 @@
         <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
@@ -10378,7 +10413,7 @@
         <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
@@ -10395,7 +10430,7 @@
         <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
@@ -10409,10 +10444,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
@@ -10426,10 +10461,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
@@ -10443,10 +10478,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9">
@@ -10460,10 +10495,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10">
@@ -10471,7 +10506,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -10480,7 +10515,7 @@
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11">
@@ -10488,7 +10523,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -10497,7 +10532,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12">
@@ -10514,7 +10549,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13">
@@ -10531,7 +10566,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14">
@@ -10548,7 +10583,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15">
@@ -10562,10 +10597,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16">
@@ -10603,13 +10638,13 @@
         <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
         <v>316</v>
@@ -10626,19 +10661,19 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
         <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -10646,7 +10681,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -10669,22 +10704,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -10692,7 +10727,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -10802,31 +10837,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
@@ -10840,7 +10875,7 @@
         <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -10852,7 +10887,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -10875,7 +10910,7 @@
         <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -10887,7 +10922,7 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
@@ -10920,10 +10955,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
@@ -10934,7 +10969,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -10964,31 +10999,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
@@ -11002,25 +11037,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -11040,25 +11075,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
         <v>422</v>
-      </c>
-      <c r="G3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>421</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -11078,25 +11113,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H4" t="s">
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -11465,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11477,46 +11512,46 @@
         <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J1" t="s">
         <v>275</v>
       </c>
       <c r="K1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
@@ -11530,37 +11565,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L2" t="s">
         <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -11589,37 +11624,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L3" t="s">
         <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O3" t="s">
         <v>56</v>
@@ -11648,37 +11683,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F4" t="s">
         <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I4" t="s">
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L4" t="s">
         <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O4" t="s">
         <v>56</v>
@@ -11707,37 +11742,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I5" t="s">
         <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -11766,37 +11801,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L6" t="s">
         <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O6" t="s">
         <v>56</v>
@@ -11816,46 +11851,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
         <v>453</v>
       </c>
-      <c r="B7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H7" t="s">
-        <v>375</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>452</v>
-      </c>
       <c r="K7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L7" t="s">
         <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -11878,43 +11913,43 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -11934,46 +11969,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O9" t="s">
         <v>56</v>
@@ -11996,43 +12031,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I10" t="s">
         <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L10" t="s">
         <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O10" t="s">
         <v>56</v>
@@ -12052,46 +12087,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L11" t="s">
         <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O11" t="s">
         <v>56</v>
@@ -12124,69 +12159,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D1" t="s">
         <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" t="s">
         <v>482</v>
-      </c>
-      <c r="G2" t="s">
-        <v>481</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
@@ -12212,22 +12247,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12275,10 +12310,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
@@ -12289,10 +12324,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3">
@@ -12303,10 +12338,10 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4">
@@ -12317,10 +12352,10 @@
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
@@ -12331,10 +12366,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
@@ -12345,10 +12380,10 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7">
@@ -12359,10 +12394,10 @@
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8">
@@ -12373,10 +12408,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9">
@@ -12387,10 +12422,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10">
@@ -12401,10 +12436,10 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11">
@@ -12415,10 +12450,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12">
@@ -12429,10 +12464,10 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13">
@@ -12443,10 +12478,10 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -12464,43 +12499,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
@@ -12508,19 +12543,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12549,19 +12584,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12600,43 +12635,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
@@ -12644,19 +12679,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12685,19 +12720,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12736,43 +12771,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
@@ -12780,19 +12815,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12821,19 +12856,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -12872,43 +12907,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
@@ -12916,19 +12951,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -12957,19 +12992,19 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="498">
   <si>
     <t>TCID</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>Get_SKU_Code</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Compare products</t>
+  </si>
+  <si>
+    <t>Bluetooth Music Receiver#JBL Tune600 Black</t>
+  </si>
+  <si>
+    <t>Add_To_Compare</t>
   </si>
   <si>
     <t>Search Type</t>
@@ -1665,92 +1677,92 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" t="s">
-        <v>128</v>
-      </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1774,30 +1786,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -1806,21 +1818,21 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -1829,21 +1841,21 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -1852,10 +1864,10 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1882,30 +1894,30 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1935,21 +1947,21 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1976,22 +1988,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
@@ -2008,10 +2020,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -2031,7 +2043,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -2040,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -2063,19 +2075,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
         <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" t="s">
-        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
@@ -2095,19 +2107,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>212</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>213</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" t="s">
-        <v>209</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -2149,79 +2161,79 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="R1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="S1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="T1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="U1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="V1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="W1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="X1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Y1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Z1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AA1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AB1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -2229,43 +2241,43 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -2274,7 +2286,7 @@
         <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="R2" t="s">
         <v>49</v>
@@ -2286,10 +2298,10 @@
         <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W2" t="s">
         <v>49</v>
@@ -2315,43 +2327,43 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -2360,7 +2372,7 @@
         <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="R3" t="s">
         <v>49</v>
@@ -2372,10 +2384,10 @@
         <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W3" t="s">
         <v>49</v>
@@ -2401,43 +2413,43 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O4" t="s">
         <v>49</v>
@@ -2446,7 +2458,7 @@
         <v>49</v>
       </c>
       <c r="Q4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="R4" t="s">
         <v>49</v>
@@ -2458,10 +2470,10 @@
         <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W4" t="s">
         <v>49</v>
@@ -2487,43 +2499,43 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>244</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O5" t="s">
         <v>49</v>
@@ -2532,7 +2544,7 @@
         <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="R5" t="s">
         <v>49</v>
@@ -2544,10 +2556,10 @@
         <v>49</v>
       </c>
       <c r="U5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W5" t="s">
         <v>49</v>
@@ -2573,53 +2585,53 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
         <v>245</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>241</v>
-      </c>
       <c r="R6" t="s">
         <v>49</v>
       </c>
@@ -2630,10 +2642,10 @@
         <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W6" t="s">
         <v>49</v>
@@ -2659,43 +2671,43 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
         <v>49</v>
@@ -2704,7 +2716,7 @@
         <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="R7" t="s">
         <v>49</v>
@@ -2716,10 +2728,10 @@
         <v>49</v>
       </c>
       <c r="U7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W7" t="s">
         <v>49</v>
@@ -2764,82 +2776,82 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="S1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="T1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="U1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="V1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="W1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="X1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Y1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Z1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AA1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AB1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AC1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -2847,46 +2859,46 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
         <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
         <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
         <v>49</v>
@@ -2907,10 +2919,10 @@
         <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="X2" t="s">
         <v>49</v>
@@ -2919,7 +2931,7 @@
         <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AA2" t="s">
         <v>49</v>
@@ -2936,46 +2948,46 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
         <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
         <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P3" t="s">
         <v>49</v>
@@ -3025,46 +3037,46 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
         <v>49</v>
@@ -3114,46 +3126,46 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
         <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M5" t="s">
         <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P5" t="s">
         <v>49</v>
@@ -3200,49 +3212,49 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M6" t="s">
         <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -3289,49 +3301,49 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
         <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M7" t="s">
         <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P7" t="s">
         <v>49</v>
@@ -3565,40 +3577,40 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
         <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
         <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s">
         <v>49</v>
@@ -3619,10 +3631,10 @@
         <v>49</v>
       </c>
       <c r="V10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
         <v>49</v>
@@ -3631,7 +3643,7 @@
         <v>49</v>
       </c>
       <c r="Z10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AA10" t="s">
         <v>49</v>
@@ -3654,40 +3666,40 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
         <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
         <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
@@ -3708,10 +3720,10 @@
         <v>49</v>
       </c>
       <c r="V11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
         <v>49</v>
@@ -3720,7 +3732,7 @@
         <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA11" t="s">
         <v>49</v>
@@ -3743,40 +3755,40 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
         <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s">
         <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P12" t="s">
         <v>49</v>
@@ -3797,10 +3809,10 @@
         <v>49</v>
       </c>
       <c r="V12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
         <v>49</v>
@@ -3809,7 +3821,7 @@
         <v>49</v>
       </c>
       <c r="Z12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA12" t="s">
         <v>49</v>
@@ -3832,40 +3844,40 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
         <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s">
         <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s">
         <v>49</v>
@@ -3886,10 +3898,10 @@
         <v>49</v>
       </c>
       <c r="V13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
         <v>49</v>
@@ -3898,7 +3910,7 @@
         <v>49</v>
       </c>
       <c r="Z13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA13" t="s">
         <v>49</v>
@@ -3921,40 +3933,40 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
         <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
         <v>49</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s">
         <v>49</v>
@@ -3975,10 +3987,10 @@
         <v>49</v>
       </c>
       <c r="V14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X14" t="s">
         <v>49</v>
@@ -3987,7 +3999,7 @@
         <v>49</v>
       </c>
       <c r="Z14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA14" t="s">
         <v>49</v>
@@ -4010,40 +4022,40 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
         <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s">
         <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s">
         <v>49</v>
@@ -4064,10 +4076,10 @@
         <v>49</v>
       </c>
       <c r="V15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
         <v>49</v>
@@ -4076,7 +4088,7 @@
         <v>49</v>
       </c>
       <c r="Z15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA15" t="s">
         <v>49</v>
@@ -4099,40 +4111,40 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
         <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s">
         <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P16" t="s">
         <v>49</v>
@@ -4153,10 +4165,10 @@
         <v>49</v>
       </c>
       <c r="V16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X16" t="s">
         <v>49</v>
@@ -4165,7 +4177,7 @@
         <v>49</v>
       </c>
       <c r="Z16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA16" t="s">
         <v>49</v>
@@ -4188,40 +4200,40 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
         <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s">
         <v>49</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P17" t="s">
         <v>49</v>
@@ -4242,10 +4254,10 @@
         <v>49</v>
       </c>
       <c r="V17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="W17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
         <v>49</v>
@@ -4254,7 +4266,7 @@
         <v>49</v>
       </c>
       <c r="Z17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA17" t="s">
         <v>49</v>
@@ -4277,40 +4289,40 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
         <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
         <v>49</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s">
         <v>49</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s">
         <v>49</v>
@@ -4331,10 +4343,10 @@
         <v>49</v>
       </c>
       <c r="V18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X18" t="s">
         <v>49</v>
@@ -4343,7 +4355,7 @@
         <v>49</v>
       </c>
       <c r="Z18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA18" t="s">
         <v>49</v>
@@ -4366,40 +4378,40 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
         <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s">
         <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s">
         <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P19" t="s">
         <v>49</v>
@@ -4420,10 +4432,10 @@
         <v>49</v>
       </c>
       <c r="V19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X19" t="s">
         <v>49</v>
@@ -4432,7 +4444,7 @@
         <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA19" t="s">
         <v>49</v>
@@ -4455,40 +4467,40 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s">
         <v>49</v>
       </c>
       <c r="N20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" t="s">
         <v>49</v>
@@ -4509,10 +4521,10 @@
         <v>49</v>
       </c>
       <c r="V20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X20" t="s">
         <v>49</v>
@@ -4521,7 +4533,7 @@
         <v>49</v>
       </c>
       <c r="Z20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA20" t="s">
         <v>49</v>
@@ -4544,40 +4556,40 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
         <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
         <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M21" t="s">
         <v>49</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P21" t="s">
         <v>49</v>
@@ -4598,10 +4610,10 @@
         <v>49</v>
       </c>
       <c r="V21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X21" t="s">
         <v>49</v>
@@ -4610,7 +4622,7 @@
         <v>49</v>
       </c>
       <c r="Z21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA21" t="s">
         <v>49</v>
@@ -4624,7 +4636,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -4633,40 +4645,40 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
         <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
         <v>49</v>
       </c>
       <c r="N22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P22" t="s">
         <v>49</v>
@@ -4687,10 +4699,10 @@
         <v>49</v>
       </c>
       <c r="V22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X22" t="s">
         <v>49</v>
@@ -4699,7 +4711,7 @@
         <v>49</v>
       </c>
       <c r="Z22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA22" t="s">
         <v>49</v>
@@ -4722,40 +4734,40 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
         <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
         <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s">
         <v>49</v>
@@ -4776,10 +4788,10 @@
         <v>49</v>
       </c>
       <c r="V23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X23" t="s">
         <v>49</v>
@@ -4788,7 +4800,7 @@
         <v>49</v>
       </c>
       <c r="Z23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s">
         <v>49</v>
@@ -4811,40 +4823,40 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
         <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s">
         <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s">
         <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P24" t="s">
         <v>49</v>
@@ -4865,10 +4877,10 @@
         <v>49</v>
       </c>
       <c r="V24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X24" t="s">
         <v>49</v>
@@ -4877,7 +4889,7 @@
         <v>49</v>
       </c>
       <c r="Z24" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA24" t="s">
         <v>49</v>
@@ -4900,40 +4912,40 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
         <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s">
         <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s">
         <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s">
         <v>49</v>
@@ -4954,10 +4966,10 @@
         <v>49</v>
       </c>
       <c r="V25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X25" t="s">
         <v>49</v>
@@ -4966,7 +4978,7 @@
         <v>49</v>
       </c>
       <c r="Z25" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s">
         <v>49</v>
@@ -5002,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -5013,16 +5025,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
@@ -5030,16 +5042,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
@@ -5047,33 +5059,33 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>268</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
@@ -5081,16 +5093,16 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" t="s">
         <v>269</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7">
@@ -5098,16 +5110,16 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -5115,16 +5127,16 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
@@ -5132,16 +5144,16 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
@@ -5149,16 +5161,16 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11">
@@ -5166,16 +5178,16 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -5183,16 +5195,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
@@ -5200,16 +5212,16 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14">
@@ -5217,16 +5229,16 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -5234,16 +5246,16 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16">
@@ -5251,16 +5263,16 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
@@ -5268,16 +5280,16 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
@@ -5285,16 +5297,16 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19">
@@ -5302,50 +5314,50 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -5359,10 +5371,10 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23">
@@ -5376,10 +5388,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24">
@@ -5393,10 +5405,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25">
@@ -5410,10 +5422,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
@@ -5427,10 +5439,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5448,25 +5460,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
@@ -5474,19 +5486,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -5497,19 +5509,19 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -5520,19 +5532,19 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -5540,22 +5552,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -5566,19 +5578,19 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -5589,19 +5601,19 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -5631,25 +5643,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
@@ -5663,22 +5675,22 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -5695,22 +5707,22 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
@@ -5727,22 +5739,22 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -5759,22 +5771,22 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
@@ -5791,22 +5803,22 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
@@ -5814,31 +5826,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" t="s">
         <v>303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" t="s">
-        <v>299</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
@@ -5846,31 +5858,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
@@ -5878,31 +5890,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
@@ -5919,22 +5931,22 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J10" t="s">
         <v>49</v>
@@ -5951,22 +5963,22 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
@@ -5983,22 +5995,22 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
@@ -6015,22 +6027,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
         <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J13" t="s">
         <v>49</v>
@@ -6047,22 +6059,22 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H14" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
@@ -6079,22 +6091,22 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I15" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
@@ -6111,22 +6123,22 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
@@ -6143,22 +6155,22 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I17" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
@@ -6175,22 +6187,22 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
@@ -6207,22 +6219,22 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F19" t="s">
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -6239,22 +6251,22 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I20" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -6330,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
@@ -6344,7 +6356,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
@@ -6358,7 +6370,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4">
@@ -6372,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
@@ -6386,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
@@ -6400,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
@@ -6414,49 +6426,49 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11">
@@ -6470,7 +6482,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12">
@@ -6484,7 +6496,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13">
@@ -6498,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14">
@@ -6512,7 +6524,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15">
@@ -6526,7 +6538,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
@@ -6540,7 +6552,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6567,43 +6579,43 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
@@ -6623,37 +6635,37 @@
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
@@ -6673,37 +6685,37 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
@@ -6723,37 +6735,37 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -6773,37 +6785,37 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
@@ -6823,37 +6835,37 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -6873,45 +6885,45 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -6923,37 +6935,37 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
@@ -6973,37 +6985,37 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10">
@@ -7017,43 +7029,43 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11">
@@ -7067,43 +7079,43 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L11" t="s">
+        <v>182</v>
+      </c>
+      <c r="M11" t="s">
+        <v>327</v>
+      </c>
+      <c r="N11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O11" t="s">
+        <v>333</v>
+      </c>
+      <c r="P11" t="s">
         <v>332</v>
-      </c>
-      <c r="E11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" t="s">
-        <v>320</v>
-      </c>
-      <c r="I11" t="s">
-        <v>321</v>
-      </c>
-      <c r="J11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K11" t="s">
-        <v>322</v>
-      </c>
-      <c r="L11" t="s">
-        <v>178</v>
-      </c>
-      <c r="M11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N11" t="s">
-        <v>321</v>
-      </c>
-      <c r="O11" t="s">
-        <v>329</v>
-      </c>
-      <c r="P11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12">
@@ -7117,43 +7129,43 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" t="s">
+        <v>326</v>
+      </c>
+      <c r="L12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M12" t="s">
+        <v>327</v>
+      </c>
+      <c r="N12" t="s">
+        <v>325</v>
+      </c>
+      <c r="O12" t="s">
+        <v>333</v>
+      </c>
+      <c r="P12" t="s">
         <v>332</v>
-      </c>
-      <c r="E12" t="s">
-        <v>333</v>
-      </c>
-      <c r="F12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" t="s">
-        <v>319</v>
-      </c>
-      <c r="H12" t="s">
-        <v>320</v>
-      </c>
-      <c r="I12" t="s">
-        <v>321</v>
-      </c>
-      <c r="J12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K12" t="s">
-        <v>322</v>
-      </c>
-      <c r="L12" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" t="s">
-        <v>323</v>
-      </c>
-      <c r="N12" t="s">
-        <v>321</v>
-      </c>
-      <c r="O12" t="s">
-        <v>329</v>
-      </c>
-      <c r="P12" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="13">
@@ -7167,43 +7179,43 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" t="s">
+        <v>325</v>
+      </c>
+      <c r="J13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L13" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" t="s">
+        <v>327</v>
+      </c>
+      <c r="N13" t="s">
+        <v>325</v>
+      </c>
+      <c r="O13" t="s">
+        <v>333</v>
+      </c>
+      <c r="P13" t="s">
         <v>332</v>
-      </c>
-      <c r="E13" t="s">
-        <v>331</v>
-      </c>
-      <c r="F13" t="s">
-        <v>318</v>
-      </c>
-      <c r="G13" t="s">
-        <v>319</v>
-      </c>
-      <c r="H13" t="s">
-        <v>320</v>
-      </c>
-      <c r="I13" t="s">
-        <v>321</v>
-      </c>
-      <c r="J13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" t="s">
-        <v>322</v>
-      </c>
-      <c r="L13" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" t="s">
-        <v>323</v>
-      </c>
-      <c r="N13" t="s">
-        <v>321</v>
-      </c>
-      <c r="O13" t="s">
-        <v>329</v>
-      </c>
-      <c r="P13" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -7230,28 +7242,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
@@ -7265,28 +7277,28 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
@@ -7300,133 +7312,133 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7453,10 +7465,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
@@ -7470,7 +7482,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
@@ -7487,7 +7499,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
@@ -7504,7 +7516,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
@@ -7521,7 +7533,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
@@ -7538,7 +7550,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -7555,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
@@ -7563,16 +7575,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
@@ -7580,16 +7592,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -7597,16 +7609,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -7772,13 +7784,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
@@ -7795,7 +7807,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -7815,7 +7827,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -7835,7 +7847,7 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
@@ -7855,7 +7867,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -7875,7 +7887,7 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -7895,7 +7907,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -7903,10 +7915,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -7915,7 +7927,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -7923,10 +7935,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -7935,7 +7947,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -7943,10 +7955,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -7955,7 +7967,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -7975,7 +7987,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -7995,7 +8007,7 @@
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -8015,7 +8027,7 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
@@ -8035,7 +8047,7 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -8065,10 +8077,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
@@ -8085,7 +8097,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
@@ -8102,7 +8114,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
@@ -8119,7 +8131,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
@@ -8136,7 +8148,7 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -8153,7 +8165,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7">
@@ -8170,15 +8182,15 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -8187,15 +8199,15 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -8204,7 +8216,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10">
@@ -8218,10 +8230,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E10" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -8235,10 +8247,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
@@ -8252,10 +8264,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
@@ -8269,18 +8281,18 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -8289,7 +8301,7 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15">
@@ -8306,7 +8318,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16">
@@ -8323,7 +8335,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17">
@@ -8340,7 +8352,7 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18">
@@ -8357,7 +8369,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -8395,16 +8407,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
@@ -8412,16 +8424,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
@@ -8429,33 +8441,33 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6">
@@ -8463,16 +8475,16 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
@@ -8480,16 +8492,16 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
@@ -8497,16 +8509,16 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9">
@@ -8514,16 +8526,16 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
@@ -8531,16 +8543,16 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
@@ -8548,16 +8560,16 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
@@ -8565,16 +8577,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
@@ -8582,16 +8594,16 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
@@ -8599,16 +8611,16 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15">
@@ -8616,16 +8628,16 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16">
@@ -8633,16 +8645,16 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17">
@@ -8650,16 +8662,16 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18">
@@ -8667,16 +8679,16 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19">
@@ -8684,50 +8696,50 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E21" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22">
@@ -8741,10 +8753,10 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23">
@@ -8758,10 +8770,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24">
@@ -8775,10 +8787,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25">
@@ -8792,10 +8804,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26">
@@ -8809,10 +8821,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E26" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27">
@@ -8826,112 +8838,112 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E29" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E31" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E32" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34">
@@ -8945,10 +8957,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35">
@@ -8962,10 +8974,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E35" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
@@ -8979,10 +8991,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37">
@@ -8996,10 +9008,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E37" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -9026,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
@@ -9263,10 +9275,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -9280,10 +9292,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
@@ -9297,10 +9309,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4">
@@ -9314,10 +9326,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
@@ -9331,10 +9343,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -9358,16 +9370,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
@@ -9378,16 +9390,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
@@ -9398,16 +9410,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -9482,16 +9494,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
@@ -9499,16 +9511,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -9516,16 +9528,16 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
@@ -9533,67 +9545,67 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
@@ -9607,44 +9619,44 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12">
@@ -9658,10 +9670,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
@@ -9675,10 +9687,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
@@ -9692,10 +9704,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15">
@@ -9747,16 +9759,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -9770,22 +9782,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -9793,7 +9805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -9816,22 +9828,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -9839,7 +9851,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -9881,31 +9893,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="J1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -9916,10 +9928,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
@@ -9931,7 +9943,7 @@
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -9951,10 +9963,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
@@ -9966,7 +9978,7 @@
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -9999,10 +10011,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2">
@@ -10013,7 +10025,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -10043,31 +10055,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
@@ -10075,31 +10087,31 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -10113,31 +10125,31 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -10151,31 +10163,31 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" t="s">
         <v>416</v>
       </c>
-      <c r="E4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G4" t="s">
-        <v>412</v>
-      </c>
       <c r="H4" t="s">
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -10544,58 +10556,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="O1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="R1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="S1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2">
@@ -10603,58 +10615,58 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="S2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -10662,58 +10674,58 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
         <v>444</v>
       </c>
-      <c r="G3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" t="s">
-        <v>440</v>
-      </c>
       <c r="K3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -10721,117 +10733,117 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -10839,353 +10851,353 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8" t="s">
+        <v>461</v>
+      </c>
+      <c r="G8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" t="s">
         <v>455</v>
       </c>
-      <c r="B8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G8" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" t="s">
-        <v>376</v>
-      </c>
-      <c r="I8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" t="s">
-        <v>451</v>
-      </c>
       <c r="K8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N9" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="S10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E11" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K11" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -11203,69 +11215,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="J1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -11291,22 +11303,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -11354,10 +11366,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
@@ -11368,10 +11380,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3">
@@ -11382,10 +11394,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4">
@@ -11396,10 +11408,10 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
@@ -11410,10 +11422,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
@@ -11424,10 +11436,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
@@ -11438,10 +11450,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8">
@@ -11452,10 +11464,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9">
@@ -11466,10 +11478,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10">
@@ -11480,52 +11492,52 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D12" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -11543,43 +11555,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -11587,19 +11599,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -11628,19 +11640,19 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -11679,43 +11691,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -11723,19 +11735,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -11764,19 +11776,19 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -11807,7 +11819,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12834,6 +12846,38 @@
         <v>7</v>
       </c>
       <c r="J32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12852,43 +12896,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -12896,19 +12940,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -12937,19 +12981,19 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -12988,43 +13032,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -13032,19 +13076,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -13073,19 +13117,19 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -13130,15 +13174,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -13147,12 +13191,12 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -13161,7 +13205,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -13175,7 +13219,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -13202,24 +13246,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -13246,188 +13290,188 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="U1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
       </c>
       <c r="M2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" t="s">
         <v>125</v>
       </c>
-      <c r="N2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2" t="s">
-        <v>121</v>
-      </c>
       <c r="Q2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S2" t="s">
         <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="U2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>128</v>
-      </c>
       <c r="R3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S3" t="s">
         <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
@@ -13454,110 +13498,110 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" t="s">
-        <v>128</v>
-      </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -13581,74 +13625,74 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="498">
   <si>
     <t>TCID</t>
   </si>
@@ -121,6 +121,9 @@
     <t>24</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>AreYouSubjectToAnAdministrationOrder?</t>
   </si>
   <si>
@@ -385,9 +388,6 @@
     <t>fieldOfEmployment</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Company Employed</t>
   </si>
   <si>
@@ -1139,6 +1139,18 @@
   </si>
   <si>
     <t>JBL Earphones T110 Blue</t>
+  </si>
+  <si>
+    <t>Validate product is out of stock</t>
+  </si>
+  <si>
+    <t>Computer Accessories</t>
+  </si>
+  <si>
+    <t>Ultra Link Keyboard And Mouse Combo KBM04</t>
+  </si>
+  <si>
+    <t>Validate_Out_Of_Stock</t>
   </si>
   <si>
     <t>scratchCode</t>
@@ -1721,7 +1733,7 @@
         <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1729,7 +1741,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1741,19 +1753,19 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1773,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1773,19 +1785,19 @@
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1805,19 +1817,19 @@
         <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -1837,19 +1849,19 @@
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1965,76 +1977,76 @@
         <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
         <v>169</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2051,76 +2063,76 @@
         <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
         <v>169</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -2137,76 +2149,76 @@
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
         <v>169</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -2223,76 +2235,76 @@
         <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
         <v>169</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -2309,76 +2321,76 @@
         <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
         <v>169</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -2395,76 +2407,76 @@
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" t="s">
         <v>169</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2580,82 +2592,82 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2669,82 +2681,82 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -2758,82 +2770,82 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -2847,82 +2859,82 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -2936,82 +2948,82 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -3025,260 +3037,260 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -3286,88 +3298,88 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -3375,88 +3387,88 @@
         <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z11" t="s">
         <v>169</v>
       </c>
       <c r="AA11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -3464,88 +3476,88 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="s">
         <v>169</v>
       </c>
       <c r="AA12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -3553,88 +3565,88 @@
         <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z13" t="s">
         <v>169</v>
       </c>
       <c r="AA13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -3642,88 +3654,88 @@
         <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z14" t="s">
         <v>169</v>
       </c>
       <c r="AA14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -3731,88 +3743,88 @@
         <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z15" t="s">
         <v>169</v>
       </c>
       <c r="AA15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -3820,88 +3832,88 @@
         <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z16" t="s">
         <v>169</v>
       </c>
       <c r="AA16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -3909,88 +3921,88 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z17" t="s">
         <v>169</v>
       </c>
       <c r="AA17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -3998,88 +4010,88 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="s">
         <v>169</v>
       </c>
       <c r="AA18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -4087,88 +4099,88 @@
         <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z19" t="s">
         <v>169</v>
       </c>
       <c r="AA19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -4176,88 +4188,88 @@
         <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z20" t="s">
         <v>169</v>
       </c>
       <c r="AA20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -4265,88 +4277,88 @@
         <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="s">
         <v>169</v>
       </c>
       <c r="AA21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -4354,88 +4366,88 @@
         <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z22" t="s">
         <v>169</v>
       </c>
       <c r="AA22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -4443,88 +4455,88 @@
         <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z23" t="s">
         <v>169</v>
       </c>
       <c r="AA23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -4532,88 +4544,88 @@
         <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z24" t="s">
         <v>169</v>
       </c>
       <c r="AA24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -4621,88 +4633,88 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z25" t="s">
         <v>169</v>
       </c>
       <c r="AA25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4754,7 +4766,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>204</v>
@@ -4788,7 +4800,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>206</v>
@@ -5204,42 +5216,42 @@
         <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -5250,42 +5262,42 @@
         <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -5296,19 +5308,19 @@
         <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -5319,19 +5331,19 @@
         <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5408,7 +5420,7 @@
         <v>251</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -5440,7 +5452,7 @@
         <v>251</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -5472,7 +5484,7 @@
         <v>251</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -5504,7 +5516,7 @@
         <v>251</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -5536,12 +5548,12 @@
         <v>251</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>257</v>
@@ -5568,7 +5580,7 @@
         <v>251</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -5600,7 +5612,7 @@
         <v>251</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -5632,7 +5644,7 @@
         <v>251</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -5640,7 +5652,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -5664,15 +5676,15 @@
         <v>251</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -5696,7 +5708,7 @@
         <v>251</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -5704,7 +5716,7 @@
         <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -5728,7 +5740,7 @@
         <v>251</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -5736,7 +5748,7 @@
         <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -5760,7 +5772,7 @@
         <v>251</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -5768,7 +5780,7 @@
         <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -5792,7 +5804,7 @@
         <v>251</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -5824,7 +5836,7 @@
         <v>251</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -5856,7 +5868,7 @@
         <v>251</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -5888,7 +5900,7 @@
         <v>251</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -5920,7 +5932,7 @@
         <v>251</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -5952,7 +5964,7 @@
         <v>251</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -5984,7 +5996,7 @@
         <v>251</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6100,7 +6112,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>257</v>
@@ -6266,16 +6278,16 @@
         <v>273</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
         <v>274</v>
       </c>
       <c r="M1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N1" t="s">
         <v>275</v>
@@ -6298,10 +6310,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>277</v>
@@ -6316,13 +6328,13 @@
         <v>280</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
         <v>281</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M2" t="s">
         <v>282</v>
@@ -6348,10 +6360,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>277</v>
@@ -6366,13 +6378,13 @@
         <v>280</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>281</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
         <v>282</v>
@@ -6398,10 +6410,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
         <v>277</v>
@@ -6416,13 +6428,13 @@
         <v>280</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
         <v>281</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
         <v>282</v>
@@ -6448,10 +6460,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>277</v>
@@ -6466,13 +6478,13 @@
         <v>280</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
         <v>281</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
         <v>282</v>
@@ -6498,10 +6510,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>277</v>
@@ -6516,13 +6528,13 @@
         <v>280</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
         <v>281</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s">
         <v>282</v>
@@ -6548,10 +6560,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>277</v>
@@ -6566,13 +6578,13 @@
         <v>280</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
         <v>281</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s">
         <v>282</v>
@@ -6589,7 +6601,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>257</v>
@@ -6598,10 +6610,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>277</v>
@@ -6616,13 +6628,13 @@
         <v>280</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
         <v>281</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s">
         <v>282</v>
@@ -6648,10 +6660,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>277</v>
@@ -6666,13 +6678,13 @@
         <v>280</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
         <v>281</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
         <v>282</v>
@@ -6716,13 +6728,13 @@
         <v>280</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
         <v>281</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s">
         <v>282</v>
@@ -6766,13 +6778,13 @@
         <v>280</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
         <v>281</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
         <v>282</v>
@@ -6816,13 +6828,13 @@
         <v>280</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
         <v>281</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
         <v>282</v>
@@ -6866,13 +6878,13 @@
         <v>280</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
         <v>281</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s">
         <v>282</v>
@@ -6940,13 +6952,13 @@
         <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>301</v>
@@ -6975,13 +6987,13 @@
         <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>301</v>
@@ -7007,7 +7019,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>257</v>
@@ -7016,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>301</v>
@@ -7051,7 +7063,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>301</v>
@@ -7086,7 +7098,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>301</v>
@@ -7201,7 +7213,7 @@
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -7218,7 +7230,7 @@
         <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -7235,7 +7247,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -7252,7 +7264,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -7269,7 +7281,7 @@
         <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -7286,12 +7298,12 @@
         <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>257</v>
@@ -7303,7 +7315,7 @@
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -7320,7 +7332,7 @@
         <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -7337,143 +7349,143 @@
         <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7526,7 +7538,7 @@
         <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -7546,7 +7558,7 @@
         <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -7566,7 +7578,7 @@
         <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -7586,7 +7598,7 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -7606,7 +7618,7 @@
         <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -7626,12 +7638,12 @@
         <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>257</v>
@@ -7646,7 +7658,7 @@
         <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -7666,7 +7678,7 @@
         <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -7686,7 +7698,7 @@
         <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -7706,7 +7718,7 @@
         <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -7726,7 +7738,7 @@
         <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -7746,7 +7758,7 @@
         <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -7766,7 +7778,7 @@
         <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7810,7 +7822,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>312</v>
@@ -7827,7 +7839,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>312</v>
@@ -7844,7 +7856,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>312</v>
@@ -7861,7 +7873,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>312</v>
@@ -7878,7 +7890,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>313</v>
@@ -7895,7 +7907,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>312</v>
@@ -7903,7 +7915,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>257</v>
@@ -7912,7 +7924,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>312</v>
@@ -7929,7 +7941,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>312</v>
@@ -7940,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7954,10 +7966,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7974,7 +7986,7 @@
         <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7991,7 +8003,7 @@
         <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -8014,7 +8026,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>312</v>
@@ -8031,7 +8043,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>312</v>
@@ -8048,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>312</v>
@@ -8065,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>312</v>
@@ -8082,7 +8094,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>312</v>
@@ -8137,7 +8149,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>204</v>
@@ -8171,7 +8183,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>206</v>
@@ -8562,7 +8574,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>257</v>
@@ -8768,7 +8780,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -8782,7 +8794,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -8796,7 +8808,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -8810,7 +8822,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -8824,7 +8836,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -8838,133 +8850,133 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -8974,7 +8986,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9038,7 +9050,7 @@
         <v>335</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>122</v>
@@ -9070,7 +9082,7 @@
         <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
         <v>122</v>
@@ -9134,7 +9146,7 @@
         <v>335</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
         <v>122</v>
@@ -9166,7 +9178,7 @@
         <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>122</v>
@@ -9198,7 +9210,7 @@
         <v>335</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>122</v>
@@ -9209,7 +9221,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -9230,7 +9242,7 @@
         <v>335</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>122</v>
@@ -9238,10 +9250,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -9262,7 +9274,7 @@
         <v>335</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>122</v>
@@ -9273,7 +9285,7 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -9305,7 +9317,7 @@
         <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -9337,7 +9349,7 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -9369,7 +9381,7 @@
         <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -9390,7 +9402,7 @@
         <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>122</v>
@@ -9401,7 +9413,7 @@
         <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -9422,7 +9434,7 @@
         <v>335</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
         <v>122</v>
@@ -9433,7 +9445,7 @@
         <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -9454,7 +9466,7 @@
         <v>335</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
         <v>122</v>
@@ -9465,7 +9477,7 @@
         <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -9486,7 +9498,7 @@
         <v>335</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
         <v>122</v>
@@ -9497,7 +9509,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -9518,7 +9530,7 @@
         <v>335</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
         <v>122</v>
@@ -9529,7 +9541,7 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -9550,7 +9562,7 @@
         <v>335</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
         <v>122</v>
@@ -9561,7 +9573,7 @@
         <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -9582,7 +9594,7 @@
         <v>335</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
         <v>122</v>
@@ -9593,7 +9605,7 @@
         <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -9614,7 +9626,7 @@
         <v>335</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
         <v>122</v>
@@ -9625,7 +9637,7 @@
         <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -9646,7 +9658,7 @@
         <v>335</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
         <v>122</v>
@@ -9657,7 +9669,7 @@
         <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -9678,7 +9690,7 @@
         <v>335</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s">
         <v>122</v>
@@ -9689,7 +9701,7 @@
         <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -9710,7 +9722,7 @@
         <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
         <v>122</v>
@@ -9721,7 +9733,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -9742,7 +9754,7 @@
         <v>335</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
         <v>122</v>
@@ -9774,7 +9786,7 @@
         <v>335</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J25" t="s">
         <v>122</v>
@@ -10149,7 +10161,7 @@
         <v>362</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
         <v>334</v>
@@ -10161,6 +10173,70 @@
         <v>5</v>
       </c>
       <c r="J37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" t="s">
+        <v>352</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" t="s">
+        <v>365</v>
+      </c>
+      <c r="F39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" t="s">
+        <v>366</v>
+      </c>
+      <c r="H39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10191,7 +10267,7 @@
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -10199,16 +10275,16 @@
         <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
@@ -10216,16 +10292,16 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4">
@@ -10239,10 +10315,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
@@ -10256,10 +10332,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -10283,16 +10359,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
@@ -10303,16 +10379,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
@@ -10323,16 +10399,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -10376,10 +10452,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
@@ -10396,7 +10472,7 @@
         <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -10413,7 +10489,7 @@
         <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
@@ -10430,7 +10506,7 @@
         <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -10444,10 +10520,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
@@ -10461,10 +10537,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
@@ -10478,10 +10554,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
@@ -10495,44 +10571,44 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12">
@@ -10546,10 +10622,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
@@ -10563,10 +10639,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
@@ -10580,10 +10656,10 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15">
@@ -10597,27 +10673,27 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E15" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -10638,13 +10714,13 @@
         <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E1" t="s">
         <v>316</v>
@@ -10653,7 +10729,7 @@
         <v>317</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -10661,91 +10737,91 @@
         <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E2" t="s">
         <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -10755,7 +10831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10813,6 +10889,17 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10837,31 +10924,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -10875,28 +10962,28 @@
         <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -10910,28 +10997,28 @@
         <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -10955,10 +11042,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
@@ -10969,10 +11056,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -10999,31 +11086,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
@@ -11037,31 +11124,31 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -11075,31 +11162,31 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -11113,373 +11200,373 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" t="s">
         <v>418</v>
       </c>
-      <c r="E4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" t="s">
-        <v>414</v>
-      </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -11500,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11512,46 +11599,46 @@
         <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="I1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J1" t="s">
         <v>275</v>
       </c>
       <c r="K1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="O1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="R1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="S1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2">
@@ -11565,57 +11652,57 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>204</v>
@@ -11624,52 +11711,52 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>446</v>
       </c>
-      <c r="G3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>442</v>
-      </c>
       <c r="K3" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -11683,57 +11770,57 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F4" t="s">
         <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="N4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>206</v>
@@ -11742,52 +11829,52 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N5" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -11801,111 +11888,111 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E6" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -11913,117 +12000,117 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
         <v>457</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" t="s">
-        <v>458</v>
-      </c>
-      <c r="G8" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" t="s">
-        <v>376</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>453</v>
-      </c>
       <c r="K8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K9" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -12031,117 +12118,117 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -12159,134 +12246,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
         <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="J1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12310,10 +12397,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
@@ -12324,10 +12411,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3">
@@ -12335,13 +12422,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4">
@@ -12352,52 +12439,52 @@
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8">
@@ -12408,10 +12495,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9">
@@ -12419,13 +12506,13 @@
         <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10">
@@ -12436,52 +12523,52 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D12" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -12499,43 +12586,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -12543,81 +12630,81 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12635,43 +12722,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -12679,81 +12766,81 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12771,43 +12858,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -12815,81 +12902,81 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12907,43 +12994,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
         <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -12951,81 +13038,81 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -13049,191 +13136,191 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -13257,110 +13344,110 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -13384,74 +13471,74 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -13475,92 +13562,92 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -13584,24 +13671,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -13610,7 +13697,7 @@
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>113</v>
@@ -13624,7 +13711,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -13633,7 +13720,7 @@
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>113</v>
@@ -13647,7 +13734,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -13656,7 +13743,7 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>113</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="474">
   <si>
     <t>TCID</t>
   </si>
@@ -1195,6 +1195,9 @@
   </si>
   <si>
     <t>Xpath@123</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
   <si>
     <t>Test Case name</t>
@@ -10156,7 +10159,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10299,6 +10302,41 @@
         <v>43</v>
       </c>
       <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10531,10 +10569,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
@@ -10545,7 +10583,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -10575,31 +10613,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
@@ -10613,25 +10651,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -10651,25 +10689,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>399</v>
-      </c>
-      <c r="G3" t="s">
-        <v>389</v>
-      </c>
-      <c r="H3" t="s">
-        <v>397</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>398</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -10689,25 +10727,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -11076,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11088,46 +11126,46 @@
         <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G1" t="s">
         <v>370</v>
       </c>
       <c r="H1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J1" t="s">
         <v>272</v>
       </c>
       <c r="K1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
@@ -11141,13 +11179,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G2" t="s">
         <v>351</v>
@@ -11159,19 +11197,19 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L2" t="s">
         <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -11200,13 +11238,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G3" t="s">
         <v>351</v>
@@ -11218,19 +11256,19 @@
         <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
@@ -11259,10 +11297,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F4" t="s">
         <v>285</v>
@@ -11277,19 +11315,19 @@
         <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L4" t="s">
         <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
@@ -11318,13 +11356,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G5" t="s">
         <v>351</v>
@@ -11336,19 +11374,19 @@
         <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L5" t="s">
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
@@ -11377,13 +11415,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G6" t="s">
         <v>351</v>
@@ -11395,19 +11433,19 @@
         <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L6" t="s">
         <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
@@ -11427,22 +11465,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G7" t="s">
         <v>351</v>
@@ -11454,19 +11492,19 @@
         <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L7" t="s">
         <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
@@ -11486,22 +11524,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G8" t="s">
         <v>351</v>
@@ -11513,19 +11551,19 @@
         <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L8" t="s">
         <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
@@ -11545,22 +11583,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G9" t="s">
         <v>351</v>
@@ -11572,19 +11610,19 @@
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L9" t="s">
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
@@ -11604,22 +11642,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G10" t="s">
         <v>351</v>
@@ -11631,19 +11669,19 @@
         <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L10" t="s">
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
@@ -11663,22 +11701,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G11" t="s">
         <v>351</v>
@@ -11690,19 +11728,19 @@
         <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L11" t="s">
         <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
@@ -11722,7 +11760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>201</v>
@@ -11731,10 +11769,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
         <v>285</v>
@@ -11749,19 +11787,19 @@
         <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L12" t="s">
         <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
@@ -11790,10 +11828,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
         <v>380</v>
@@ -11808,19 +11846,19 @@
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L13" t="s">
         <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
@@ -11853,69 +11891,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D1" t="s">
         <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" t="s">
         <v>462</v>
-      </c>
-      <c r="G2" t="s">
-        <v>461</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -11947,16 +11985,16 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -12004,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D1" t="s">
         <v>370</v>
@@ -12018,10 +12056,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3">
@@ -12032,10 +12070,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
@@ -12046,10 +12084,10 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5">
@@ -12060,10 +12098,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6">
@@ -12074,10 +12112,10 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7">
@@ -12088,10 +12126,10 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
@@ -12102,10 +12140,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9">
@@ -12116,10 +12154,10 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10">
@@ -12130,10 +12168,10 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
@@ -12144,10 +12182,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12">
@@ -12158,10 +12196,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">
@@ -12172,10 +12210,10 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -12193,43 +12231,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1" t="s">
         <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
@@ -12237,19 +12275,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -12278,19 +12316,19 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -12329,43 +12367,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1" t="s">
         <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
@@ -12373,19 +12411,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -12414,19 +12452,19 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -12465,43 +12503,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1" t="s">
         <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
@@ -12509,19 +12547,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -12550,19 +12588,19 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -12601,43 +12639,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1" t="s">
         <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
@@ -12645,19 +12683,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -12686,19 +12724,19 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16538" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16614" uniqueCount="1420">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2086,7 +2086,7 @@
     <t>newPassword</t>
   </si>
   <si>
-    <t>S!s9352889446</t>
+    <t>S!s3837972525</t>
   </si>
   <si>
     <t>waitTimeForforgotPasswordEmailInSec</t>
@@ -2191,7 +2191,7 @@
     <t>Beast</t>
   </si>
   <si>
-    <t>fake251036309179362@automationjdg.co.za</t>
+    <t>fake340391342234635@automationjdg.co.za</t>
   </si>
   <si>
     <t>0826996708</t>
@@ -2212,7 +2212,7 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>fake057137112375431@automationjdg.co.za</t>
+    <t>fake695758613158205@automationjdg.co.za</t>
   </si>
   <si>
     <t>0761233216</t>
@@ -2227,7 +2227,7 @@
     <t>Kwem</t>
   </si>
   <si>
-    <t>fake334170319323348@automationjdg.co.za</t>
+    <t>fake336650566151081@automationjdg.co.za</t>
   </si>
   <si>
     <t>0726456547</t>
@@ -2422,10 +2422,10 @@
     <t>Test@gmail.com</t>
   </si>
   <si>
-    <t>fake135564101414752@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake403310393360600@automationjdg.co.za</t>
+    <t>fake485387627879390@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake482156532567521@automationjdg.co.za</t>
   </si>
   <si>
     <t>ProductSelectionType</t>
@@ -3058,7 +3058,7 @@
     <t>Validate_Password_Field</t>
   </si>
   <si>
-    <t>fake306447026087310@automationjdg.co.za</t>
+    <t>fake274329538952502@automationjdg.co.za</t>
   </si>
   <si>
     <t>0823646475</t>
@@ -3076,7 +3076,7 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>fake453430062395034@automationjdg.co.za</t>
+    <t>fake689334065144844@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222227</t>
@@ -3091,10 +3091,10 @@
     <t>5311266534086</t>
   </si>
   <si>
-    <t>fake761097616627616@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake667413900605162@automationjdg.co.za</t>
+    <t>fake318675798086330@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake777723853313327@automationjdg.co.za</t>
   </si>
   <si>
     <t>Cindy</t>
@@ -3103,7 +3103,7 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>fake353115277973812@automationjdg.co.za</t>
+    <t>fake673040420167445@automationjdg.co.za</t>
   </si>
   <si>
     <t>0837849274</t>
@@ -3115,7 +3115,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>fake792401037451912@automationjdg.co.za</t>
+    <t>fake843787028535962@automationjdg.co.za</t>
   </si>
   <si>
     <t>0837849275</t>
@@ -3127,7 +3127,7 @@
     <t>Newslet</t>
   </si>
   <si>
-    <t>fake210778344887807@automationjdg.co.za</t>
+    <t>fake179616234715890@automationjdg.co.za</t>
   </si>
   <si>
     <t>0837849277</t>
@@ -3139,7 +3139,7 @@
     <t>NoNewslet</t>
   </si>
   <si>
-    <t>fake106062314482162@automationjdg.co.za</t>
+    <t>fake726714165470154@automationjdg.co.za</t>
   </si>
   <si>
     <t>0837849278</t>
@@ -3307,7 +3307,7 @@
     <t>Dyson V11 Absolute Extra Vacuum Cleaner</t>
   </si>
   <si>
-    <t>fake633905489553800@automationjdg.co.za</t>
+    <t>fake654879285478167@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222224</t>
@@ -3319,7 +3319,7 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>fake542256146125785@automationjdg.co.za</t>
+    <t>fake693785136243279@automationjdg.co.za</t>
   </si>
   <si>
     <t>0859345893</t>
@@ -3340,7 +3340,7 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>fake502303462010508@automationjdg.co.za</t>
+    <t>fake495923775200185@automationjdg.co.za</t>
   </si>
   <si>
     <t>2222226</t>
@@ -3352,7 +3352,7 @@
     <t>NoNewsLet</t>
   </si>
   <si>
-    <t>fake019584417047590@automationjdg.co.za</t>
+    <t>fake617757144695244@automationjdg.co.za</t>
   </si>
   <si>
     <t>0837849273</t>
@@ -3364,16 +3364,16 @@
     <t>watlevi41@gmail.com</t>
   </si>
   <si>
-    <t>fake450004345105779@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake656285577297173@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake835712128640446@automationjdg.co.za</t>
-  </si>
-  <si>
-    <t>fake056278849048854@automationjdg.co.za</t>
+    <t>fake166694114727896@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake427560262457184@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake246711177582064@automationjdg.co.za</t>
+  </si>
+  <si>
+    <t>fake060794767846180@automationjdg.co.za</t>
   </si>
   <si>
     <t>Validate_Parallel_Login_to_IC</t>
@@ -4108,7 +4108,7 @@
     <t>BackendLast</t>
   </si>
   <si>
-    <t>fake867706477695648@automationjdg.co.za</t>
+    <t>fake534816236772336@automationjdg.co.za</t>
   </si>
   <si>
     <t>9601015800085</t>
@@ -4120,7 +4120,7 @@
     <t>Louw</t>
   </si>
   <si>
-    <t>fake023343789579037@automationjdg.co.za</t>
+    <t>fake657385694639470@automationjdg.co.za</t>
   </si>
   <si>
     <t>9104123240187</t>
@@ -4132,7 +4132,7 @@
     <t>BaLastName</t>
   </si>
   <si>
-    <t>fake288306861831723@automationjdg.co.za</t>
+    <t>fake550612783079512@automationjdg.co.za</t>
   </si>
   <si>
     <t>P1A9SS0P</t>
@@ -21341,7 +21341,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21543,6 +21543,20 @@
         <v>707</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -21550,7 +21564,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21843,6 +21857,23 @@
       </c>
       <c r="E17" t="s">
         <v>716</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -21963,7 +21994,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22906,6 +22937,26 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>614</v>
+      </c>
+      <c r="B48" t="s">
+        <v>615</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>624</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -26002,7 +26053,7 @@
         <v>351</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
         <v>423</v>
@@ -30150,7 +30201,7 @@
         <v>351</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82" t="s">
         <v>423</v>
@@ -32687,7 +32738,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32945,6 +32996,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>614</v>
+      </c>
+      <c r="B19" t="s">
+        <v>615</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -32952,7 +33017,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33406,6 +33471,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>834</v>
+      </c>
+      <c r="E15" t="s">
+        <v>835</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>836</v>
+      </c>
+      <c r="H15" t="s">
+        <v>837</v>
+      </c>
+      <c r="I15" t="s">
+        <v>838</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -33413,7 +33510,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33671,6 +33768,20 @@
         <v>841</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>614</v>
+      </c>
+      <c r="B19" t="s">
+        <v>615</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -33678,7 +33789,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33984,6 +34095,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -33991,7 +34122,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34895,6 +35026,59 @@
         <v>11</v>
       </c>
       <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>873</v>
+      </c>
+      <c r="E18" t="s">
+        <v>874</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -36199,7 +36383,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37570,6 +37754,44 @@
         <v>1019</v>
       </c>
       <c r="L36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>614</v>
+      </c>
+      <c r="B37" t="s">
+        <v>615</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>625</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F37" t="s">
+        <v>771</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -41397,7 +41619,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41848,6 +42070,20 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B33" t="s">
+        <v>615</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
         <v>625</v>
       </c>
     </row>
@@ -42550,7 +42786,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43449,6 +43685,20 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>614</v>
+      </c>
+      <c r="B65" t="s">
+        <v>615</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
         <v>625</v>
       </c>
     </row>

--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -1,16 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
-  <sheets/>
+  <sheets>
+    <sheet name="Suites" r:id="rId3" sheetId="1"/>
+    <sheet name="Hico_Test" r:id="rId4" sheetId="2"/>
+  </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+  <si>
+    <t>testSuitID</t>
+  </si>
+  <si>
+    <t>testSuitName</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Hico_Test</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Test_Case_Name</t>
+  </si>
+  <si>
+    <t>Jira User Story</t>
+  </si>
+  <si>
+    <t>testCaseDescription</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Action1</t>
+  </si>
+  <si>
+    <t>Action2</t>
+  </si>
+  <si>
+    <t>Action3</t>
+  </si>
+  <si>
+    <t>Action4</t>
+  </si>
+  <si>
+    <t>Action5</t>
+  </si>
+  <si>
+    <t>Action6</t>
+  </si>
+  <si>
+    <t>Action7</t>
+  </si>
+  <si>
+    <t>Action8</t>
+  </si>
+  <si>
+    <t>Action9</t>
+  </si>
+  <si>
+    <t>Adding_an_employee</t>
+  </si>
+  <si>
+    <t>Creat_user</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Removing_an_employee</t>
+  </si>
+  <si>
+    <t>Remove_user</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Editing_an_employee</t>
+  </si>
+  <si>
+    <t>Editing_user</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Fields_validations</t>
+  </si>
+  <si>
+    <t>Validations</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,4 +164,326 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Reports/Datasheet.xlsx
+++ b/Reports/Datasheet.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Suites" r:id="rId3" sheetId="1"/>
-    <sheet name="Hico_Test" r:id="rId4" sheetId="2"/>
+    <sheet name="KCM_Test" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -39,7 +39,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Hico_Test</t>
+    <t>KCM_Test</t>
   </si>
   <si>
     <t>yes</t>
@@ -93,37 +93,37 @@
     <t>Action9</t>
   </si>
   <si>
-    <t>Adding_an_employee</t>
-  </si>
-  <si>
-    <t>Creat_user</t>
+    <t>Adding_items_to_cart</t>
+  </si>
+  <si>
+    <t>Add_item</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Removing_an_employee</t>
-  </si>
-  <si>
-    <t>Remove_user</t>
+    <t>Add_and_Remove_items_to_cart</t>
+  </si>
+  <si>
+    <t>Remove_ItemsInCart</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Editing_an_employee</t>
-  </si>
-  <si>
-    <t>Editing_user</t>
+    <t>Searching_Product_Using_search_bar</t>
+  </si>
+  <si>
+    <t>SearchBar_Product</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Fields_validations</t>
-  </si>
-  <si>
-    <t>Validations</t>
+    <t>Product_details_popUp</t>
+  </si>
+  <si>
+    <t>Validate_ProductDetails</t>
   </si>
 </sst>
 </file>
@@ -353,10 +353,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
